--- a/Code/R/PerfSearch_BLASTCLUST25_RUS_comb.xlsx
+++ b/Code/R/PerfSearch_BLASTCLUST25_RUS_comb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TenfoldCV_Coarse" sheetId="6" r:id="rId1"/>
@@ -626,9 +626,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -712,23 +710,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="90352640"/>
-        <c:axId val="90354432"/>
+        <c:axId val="75082752"/>
+        <c:axId val="75084544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="90352640"/>
+        <c:axId val="75082752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90354432"/>
+        <c:crossAx val="75084544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90354432"/>
+        <c:axId val="75084544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -736,7 +734,340 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90352640"/>
+        <c:crossAx val="75082752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TenfoldCV_MidGrain!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MCC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>TenfoldCV_MidGrain!$B$2:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>TenfoldCV_MidGrain!$J$2:$J$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.75091277498825504</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71608795192156205</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.637601284602484</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50460839234958199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53863328325166704</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56077215409204395</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53284212450552604</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.54350982548885896</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.59472397912500496</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.61941012568663401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.64378255526988204</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.62607252607793296</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.64064420292402902</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.66868470194780105</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.63904520746666804</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.64448505266058598</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.66043568039881295</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.60483896146188698</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.60903802697018805</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.61072725826968499</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.592908967411923</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.59112465632639699</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.56804073908531405</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.55602185689369399</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.54384112771013204</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.53542845478652001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.53757329373236795</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.54463677206294703</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.55752701923785497</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.55782930816776299</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.55011335984874998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.55782930816776299</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.57071685647229797</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.55226866599522095</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.54959566524277803</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.53954713520795505</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.553557708359246</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.52859514025632104</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.51214081682421797</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.51002469579729803</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="75138176"/>
+        <c:axId val="75139712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="75138176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75139712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="75139712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75138176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -749,142 +1080,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>TenfoldCV_MidGrain!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MCC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>TenfoldCV_MidGrain!$B$2:$B$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>TenfoldCV_MidGrain!$J$2:$J$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="96375936"/>
-        <c:axId val="96377472"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="96375936"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96377472"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="96377472"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0.5"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:minorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96375936"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1116,23 +1312,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="96430720"/>
-        <c:axId val="96444800"/>
+        <c:axId val="75192960"/>
+        <c:axId val="75215232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96430720"/>
+        <c:axId val="75192960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96444800"/>
+        <c:crossAx val="75215232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96444800"/>
+        <c:axId val="75215232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.9"/>
@@ -1143,7 +1339,7 @@
         <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96430720"/>
+        <c:crossAx val="75192960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1155,7 +1351,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1207,34 +1403,34 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="97162368"/>
-        <c:axId val="97163904"/>
+        <c:axId val="75535488"/>
+        <c:axId val="75537024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="97162368"/>
+        <c:axId val="75535488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97163904"/>
+        <c:crossAx val="75537024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97163904"/>
+        <c:axId val="75537024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.9"/>
-          <c:min val="0.65000000000000058"/>
+          <c:min val="0.65000000000000091"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97162368"/>
+        <c:crossAx val="75535488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1246,7 +1442,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1256,7 +1452,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1280,64 +1478,422 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>IndependentTest_SVM!$B$2:$B$42</c:f>
+              <c:f>IndependentTest_SVM!$B$2:$B$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>600</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>IndependentTest_SVM!$I$2:$I$42</c:f>
+              <c:f>IndependentTest_SVM!$I$2:$I$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>2.2075539284417401E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6863830426280106E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.247369036338036</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.184902799625527</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16439898730535701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27108335359681501</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.292015635472474</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.325779182072302</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.34506487425100302</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.29092868272585598</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.31247895552036398</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.388197983532378</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.35690799891080199</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.36731544334622701</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.34749779421045601</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.33837875039718801</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.38983327364178899</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.37853878672357799</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.37185684337083602</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.422890031611031</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.40016957453635399</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.388922234131299</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.37774427813297401</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.38983327364178899</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.37712977390388802</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.35783002674779602</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.422890031611031</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.38983327364178899</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.43437224276306902</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.48669272578745698</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.43581363364040898</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.449357231967977</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.43314808182421</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.46936407313158302</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.46134351392193401</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.49319696191607199</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.49119496025398202</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.43937477516374701</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.46936407313158302</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.41740603640555901</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.45480548591542003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.50832351360023298</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.445942046155682</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43437224276306902</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.45609085490122298</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.44753318600918401</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46626336818652098</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.49812029409784098</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.45480548591542003</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.45480548591542003</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.49695618805665898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.47336463120312899</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.42091505277674202</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.47534939727158698</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.43213581570144299</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.44753318600918401</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.40243550506732201</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.43213581570144299</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.39932966545485798</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.40243550506732201</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="97225728"/>
-        <c:axId val="97248000"/>
+        <c:axId val="91568000"/>
+        <c:axId val="91566464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="97225728"/>
+        <c:axId val="91568000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97248000"/>
+        <c:crossAx val="91566464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97248000"/>
+        <c:axId val="91566464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.70000000000000062"/>
-          <c:min val="0.5"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97225728"/>
+        <c:crossAx val="91568000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1383,19 +1939,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1487,20 +2043,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1805,7 +2361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:J8"/>
     </sheetView>
   </sheetViews>
@@ -2078,10 +2634,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:J16"/>
+      <selection activeCell="J1" activeCellId="1" sqref="B1:B1048576 J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2127,6 +2683,30 @@
       <c r="B2">
         <v>100</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.94097879571107901</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <v>0.87474332648870601</v>
+      </c>
+      <c r="G2">
+        <v>0.84394250513347002</v>
+      </c>
+      <c r="H2">
+        <v>0.90554414784394299</v>
+      </c>
+      <c r="I2">
+        <v>0.89934354485776802</v>
+      </c>
+      <c r="J2">
+        <v>0.75091277498825504</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
@@ -2135,6 +2715,30 @@
       <c r="B3">
         <v>200</v>
       </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.917834961567491</v>
+      </c>
+      <c r="E3">
+        <v>0.5</v>
+      </c>
+      <c r="F3">
+        <v>0.85010266940451795</v>
+      </c>
+      <c r="G3">
+        <v>0.74537987679671502</v>
+      </c>
+      <c r="H3">
+        <v>0.95482546201231999</v>
+      </c>
+      <c r="I3">
+        <v>0.94285714285714295</v>
+      </c>
+      <c r="J3">
+        <v>0.71608795192156205</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
@@ -2143,6 +2747,30 @@
       <c r="B4">
         <v>300</v>
       </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.92380538771930598</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="F4">
+        <v>0.802874743326489</v>
+      </c>
+      <c r="G4">
+        <v>0.64681724845995903</v>
+      </c>
+      <c r="H4">
+        <v>0.95893223819301798</v>
+      </c>
+      <c r="I4">
+        <v>0.94029850746268695</v>
+      </c>
+      <c r="J4">
+        <v>0.637601284602484</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
@@ -2151,6 +2779,30 @@
       <c r="B5">
         <v>400</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.917493432952874</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="F5">
+        <v>0.72587268993839804</v>
+      </c>
+      <c r="G5">
+        <v>0.50308008213552402</v>
+      </c>
+      <c r="H5">
+        <v>0.94866529774127295</v>
+      </c>
+      <c r="I5">
+        <v>0.907407407407407</v>
+      </c>
+      <c r="J5">
+        <v>0.50460839234958199</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
@@ -2159,6 +2811,30 @@
       <c r="B6">
         <v>500</v>
       </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.919538388237924</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="F6">
+        <v>0.75154004106776195</v>
+      </c>
+      <c r="G6">
+        <v>0.57289527720739197</v>
+      </c>
+      <c r="H6">
+        <v>0.93018480492813105</v>
+      </c>
+      <c r="I6">
+        <v>0.89137380191693305</v>
+      </c>
+      <c r="J6">
+        <v>0.53863328325166704</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
@@ -2167,6 +2843,30 @@
       <c r="B7">
         <v>600</v>
       </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0.89433694960134302</v>
+      </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+      <c r="F7">
+        <v>0.76694045174537995</v>
+      </c>
+      <c r="G7">
+        <v>0.61396303901437399</v>
+      </c>
+      <c r="H7">
+        <v>0.91991786447638602</v>
+      </c>
+      <c r="I7">
+        <v>0.88461538461538503</v>
+      </c>
+      <c r="J7">
+        <v>0.56077215409204395</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
@@ -2175,6 +2875,30 @@
       <c r="B8">
         <v>700</v>
       </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0.89182819002483604</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="F8">
+        <v>0.75256673511293604</v>
+      </c>
+      <c r="G8">
+        <v>0.59342915811088304</v>
+      </c>
+      <c r="H8">
+        <v>0.91170431211499003</v>
+      </c>
+      <c r="I8">
+        <v>0.87048192771084298</v>
+      </c>
+      <c r="J8">
+        <v>0.53284212450552604</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
@@ -2183,6 +2907,30 @@
       <c r="B9">
         <v>800</v>
       </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0.88914655793969999</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+      <c r="F9">
+        <v>0.76078028747433302</v>
+      </c>
+      <c r="G9">
+        <v>0.62012320328542103</v>
+      </c>
+      <c r="H9">
+        <v>0.901437371663244</v>
+      </c>
+      <c r="I9">
+        <v>0.86285714285714299</v>
+      </c>
+      <c r="J9">
+        <v>0.54350982548885896</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
@@ -2191,6 +2939,30 @@
       <c r="B10">
         <v>900</v>
       </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0.91544004486252695</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+      <c r="F10">
+        <v>0.78850102669404498</v>
+      </c>
+      <c r="G10">
+        <v>0.66735112936344998</v>
+      </c>
+      <c r="H10">
+        <v>0.90965092402464098</v>
+      </c>
+      <c r="I10">
+        <v>0.88075880758807601</v>
+      </c>
+      <c r="J10">
+        <v>0.59472397912500496</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
@@ -2199,6 +2971,30 @@
       <c r="B11">
         <v>1000</v>
       </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0.91782231235954403</v>
+      </c>
+      <c r="E11">
+        <v>0.5</v>
+      </c>
+      <c r="F11">
+        <v>0.80184804928131403</v>
+      </c>
+      <c r="G11">
+        <v>0.68993839835728998</v>
+      </c>
+      <c r="H11">
+        <v>0.91375770020533897</v>
+      </c>
+      <c r="I11">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="J11">
+        <v>0.61941012568663401</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
@@ -2207,6 +3003,30 @@
       <c r="B12">
         <v>1100</v>
       </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0.918408392327836</v>
+      </c>
+      <c r="E12">
+        <v>0.5</v>
+      </c>
+      <c r="F12">
+        <v>0.81622176591375795</v>
+      </c>
+      <c r="G12">
+        <v>0.72279260780287502</v>
+      </c>
+      <c r="H12">
+        <v>0.90965092402464098</v>
+      </c>
+      <c r="I12">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="J12">
+        <v>0.64378255526988204</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
@@ -2215,6 +3035,30 @@
       <c r="B13">
         <v>1200</v>
       </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0.90780835606677501</v>
+      </c>
+      <c r="E13">
+        <v>0.5</v>
+      </c>
+      <c r="F13">
+        <v>0.80595482546201203</v>
+      </c>
+      <c r="G13">
+        <v>0.70020533880903502</v>
+      </c>
+      <c r="H13">
+        <v>0.91170431211499003</v>
+      </c>
+      <c r="I13">
+        <v>0.88802083333333304</v>
+      </c>
+      <c r="J13">
+        <v>0.62607252607793296</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
@@ -2223,6 +3067,30 @@
       <c r="B14">
         <v>1300</v>
       </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0.90885402392387205</v>
+      </c>
+      <c r="E14">
+        <v>0.5</v>
+      </c>
+      <c r="F14">
+        <v>0.81416837782340901</v>
+      </c>
+      <c r="G14">
+        <v>0.71663244353182798</v>
+      </c>
+      <c r="H14">
+        <v>0.91170431211499003</v>
+      </c>
+      <c r="I14">
+        <v>0.89030612244898</v>
+      </c>
+      <c r="J14">
+        <v>0.64064420292402902</v>
+      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
@@ -2231,6 +3099,30 @@
       <c r="B15">
         <v>1400</v>
       </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0.91292706888337405</v>
+      </c>
+      <c r="E15">
+        <v>0.5</v>
+      </c>
+      <c r="F15">
+        <v>0.829568788501027</v>
+      </c>
+      <c r="G15">
+        <v>0.74537987679671502</v>
+      </c>
+      <c r="H15">
+        <v>0.91375770020533897</v>
+      </c>
+      <c r="I15">
+        <v>0.89629629629629604</v>
+      </c>
+      <c r="J15">
+        <v>0.66868470194780105</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
@@ -2238,6 +3130,830 @@
       </c>
       <c r="B16">
         <v>1500</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0.903840721173513</v>
+      </c>
+      <c r="E16">
+        <v>0.5</v>
+      </c>
+      <c r="F16">
+        <v>0.81724845995893203</v>
+      </c>
+      <c r="G16">
+        <v>0.757700205338809</v>
+      </c>
+      <c r="H16">
+        <v>0.87679671457905495</v>
+      </c>
+      <c r="I16">
+        <v>0.86013986013985999</v>
+      </c>
+      <c r="J16">
+        <v>0.63904520746666804</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1600</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0.910245436798235</v>
+      </c>
+      <c r="E17">
+        <v>0.5</v>
+      </c>
+      <c r="F17">
+        <v>0.82032854209445605</v>
+      </c>
+      <c r="G17">
+        <v>0.76591375770020498</v>
+      </c>
+      <c r="H17">
+        <v>0.87474332648870601</v>
+      </c>
+      <c r="I17">
+        <v>0.85944700460829504</v>
+      </c>
+      <c r="J17">
+        <v>0.64448505266058598</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1700</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0.91706757628526703</v>
+      </c>
+      <c r="E18">
+        <v>0.5</v>
+      </c>
+      <c r="F18">
+        <v>0.82854209445585203</v>
+      </c>
+      <c r="G18">
+        <v>0.77823408624229995</v>
+      </c>
+      <c r="H18">
+        <v>0.878850102669405</v>
+      </c>
+      <c r="I18">
+        <v>0.86529680365296802</v>
+      </c>
+      <c r="J18">
+        <v>0.66043568039881295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1800</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0.89269255256800195</v>
+      </c>
+      <c r="E19">
+        <v>0.5</v>
+      </c>
+      <c r="F19">
+        <v>0.80082135523613995</v>
+      </c>
+      <c r="G19">
+        <v>0.74948665297741301</v>
+      </c>
+      <c r="H19">
+        <v>0.852156057494867</v>
+      </c>
+      <c r="I19">
+        <v>0.83524027459954198</v>
+      </c>
+      <c r="J19">
+        <v>0.60483896146188698</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1900</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0.89211068900235901</v>
+      </c>
+      <c r="E20">
+        <v>0.5</v>
+      </c>
+      <c r="F20">
+        <v>0.80390143737166297</v>
+      </c>
+      <c r="G20">
+        <v>0.77207392197125302</v>
+      </c>
+      <c r="H20">
+        <v>0.83572895277207404</v>
+      </c>
+      <c r="I20">
+        <v>0.82456140350877205</v>
+      </c>
+      <c r="J20">
+        <v>0.60903802697018805</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2000</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0.89032293427893205</v>
+      </c>
+      <c r="E21">
+        <v>0.5</v>
+      </c>
+      <c r="F21">
+        <v>0.80492813141683806</v>
+      </c>
+      <c r="G21">
+        <v>0.77823408624229995</v>
+      </c>
+      <c r="H21">
+        <v>0.83162217659137605</v>
+      </c>
+      <c r="I21">
+        <v>0.82212581344902402</v>
+      </c>
+      <c r="J21">
+        <v>0.61072725826968499</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>2100</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0.88655347031020304</v>
+      </c>
+      <c r="E22">
+        <v>0.5</v>
+      </c>
+      <c r="F22">
+        <v>0.79568788501026699</v>
+      </c>
+      <c r="G22">
+        <v>0.75975359342915805</v>
+      </c>
+      <c r="H22">
+        <v>0.83162217659137605</v>
+      </c>
+      <c r="I22">
+        <v>0.81858407079646001</v>
+      </c>
+      <c r="J22">
+        <v>0.592908967411923</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>2200</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0.88632578456712496</v>
+      </c>
+      <c r="E23">
+        <v>0.5</v>
+      </c>
+      <c r="F23">
+        <v>0.79466119096509202</v>
+      </c>
+      <c r="G23">
+        <v>0.75564681724845995</v>
+      </c>
+      <c r="H23">
+        <v>0.83367556468172499</v>
+      </c>
+      <c r="I23">
+        <v>0.81959910913140299</v>
+      </c>
+      <c r="J23">
+        <v>0.59112465632639699</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>2300</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0.88047341768949805</v>
+      </c>
+      <c r="E24">
+        <v>0.5</v>
+      </c>
+      <c r="F24">
+        <v>0.78336755646817202</v>
+      </c>
+      <c r="G24">
+        <v>0.74948665297741301</v>
+      </c>
+      <c r="H24">
+        <v>0.81724845995893203</v>
+      </c>
+      <c r="I24">
+        <v>0.80396475770925102</v>
+      </c>
+      <c r="J24">
+        <v>0.56804073908531405</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>2400</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0.87204061239032304</v>
+      </c>
+      <c r="E25">
+        <v>0.5</v>
+      </c>
+      <c r="F25">
+        <v>0.77720739219712498</v>
+      </c>
+      <c r="G25">
+        <v>0.73921971252566698</v>
+      </c>
+      <c r="H25">
+        <v>0.81519507186858298</v>
+      </c>
+      <c r="I25">
+        <v>0.8</v>
+      </c>
+      <c r="J25">
+        <v>0.55602185689369399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>2500</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0.87172438219160397</v>
+      </c>
+      <c r="E26">
+        <v>0.5</v>
+      </c>
+      <c r="F26">
+        <v>0.77104722792607805</v>
+      </c>
+      <c r="G26">
+        <v>0.731006160164271</v>
+      </c>
+      <c r="H26">
+        <v>0.81108829568788499</v>
+      </c>
+      <c r="I26">
+        <v>0.79464285714285698</v>
+      </c>
+      <c r="J26">
+        <v>0.54384112771013204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>2600</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0.86634425241072899</v>
+      </c>
+      <c r="E27">
+        <v>0.5</v>
+      </c>
+      <c r="F27">
+        <v>0.76694045174537995</v>
+      </c>
+      <c r="G27">
+        <v>0.72895277207392195</v>
+      </c>
+      <c r="H27">
+        <v>0.80492813141683806</v>
+      </c>
+      <c r="I27">
+        <v>0.78888888888888897</v>
+      </c>
+      <c r="J27">
+        <v>0.53542845478652001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>2700</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0.86565276237619604</v>
+      </c>
+      <c r="E28">
+        <v>0.5</v>
+      </c>
+      <c r="F28">
+        <v>0.76796714579055403</v>
+      </c>
+      <c r="G28">
+        <v>0.72895277207392195</v>
+      </c>
+      <c r="H28">
+        <v>0.806981519507187</v>
+      </c>
+      <c r="I28">
+        <v>0.79064587973273903</v>
+      </c>
+      <c r="J28">
+        <v>0.53757329373236795</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>2800</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0.86300064510960495</v>
+      </c>
+      <c r="E29">
+        <v>0.5</v>
+      </c>
+      <c r="F29">
+        <v>0.77104722792607805</v>
+      </c>
+      <c r="G29">
+        <v>0.72279260780287502</v>
+      </c>
+      <c r="H29">
+        <v>0.81930184804928097</v>
+      </c>
+      <c r="I29">
+        <v>0.8</v>
+      </c>
+      <c r="J29">
+        <v>0.54463677206294703</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>2900</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0.86251997520755197</v>
+      </c>
+      <c r="E30">
+        <v>0.5</v>
+      </c>
+      <c r="F30">
+        <v>0.77823408624229995</v>
+      </c>
+      <c r="G30">
+        <v>0.74743326488706396</v>
+      </c>
+      <c r="H30">
+        <v>0.80903490759753605</v>
+      </c>
+      <c r="I30">
+        <v>0.79649890590809602</v>
+      </c>
+      <c r="J30">
+        <v>0.55752701923785497</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>3000</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0.86120867398353096</v>
+      </c>
+      <c r="E31">
+        <v>0.5</v>
+      </c>
+      <c r="F31">
+        <v>0.77823408624229995</v>
+      </c>
+      <c r="G31">
+        <v>0.74332648870636597</v>
+      </c>
+      <c r="H31">
+        <v>0.81314168377823404</v>
+      </c>
+      <c r="I31">
+        <v>0.79911699779249401</v>
+      </c>
+      <c r="J31">
+        <v>0.55782930816776299</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>3100</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0.85373720848846202</v>
+      </c>
+      <c r="E32">
+        <v>0.5</v>
+      </c>
+      <c r="F32">
+        <v>0.77412731006160196</v>
+      </c>
+      <c r="G32">
+        <v>0.73305954825462005</v>
+      </c>
+      <c r="H32">
+        <v>0.81519507186858298</v>
+      </c>
+      <c r="I32">
+        <v>0.79865771812080499</v>
+      </c>
+      <c r="J32">
+        <v>0.55011335984874998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>3200</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0.85108087481922101</v>
+      </c>
+      <c r="E33">
+        <v>0.5</v>
+      </c>
+      <c r="F33">
+        <v>0.77823408624229995</v>
+      </c>
+      <c r="G33">
+        <v>0.74332648870636597</v>
+      </c>
+      <c r="H33">
+        <v>0.81314168377823404</v>
+      </c>
+      <c r="I33">
+        <v>0.79911699779249401</v>
+      </c>
+      <c r="J33">
+        <v>0.55782930816776299</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>3300</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0.85372877568316297</v>
+      </c>
+      <c r="E34">
+        <v>0.5</v>
+      </c>
+      <c r="F34">
+        <v>0.78439425051334699</v>
+      </c>
+      <c r="G34">
+        <v>0.74332648870636597</v>
+      </c>
+      <c r="H34">
+        <v>0.82546201232032901</v>
+      </c>
+      <c r="I34">
+        <v>0.80984340044742698</v>
+      </c>
+      <c r="J34">
+        <v>0.57071685647229797</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>3400</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0.85270840624196198</v>
+      </c>
+      <c r="E35">
+        <v>0.5</v>
+      </c>
+      <c r="F35">
+        <v>0.77515400410677604</v>
+      </c>
+      <c r="G35">
+        <v>0.73305954825462005</v>
+      </c>
+      <c r="H35">
+        <v>0.81724845995893203</v>
+      </c>
+      <c r="I35">
+        <v>0.80044843049327397</v>
+      </c>
+      <c r="J35">
+        <v>0.55226866599522095</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>3500</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0.85230363158760303</v>
+      </c>
+      <c r="E36">
+        <v>0.5</v>
+      </c>
+      <c r="F36">
+        <v>0.77412731006160196</v>
+      </c>
+      <c r="G36">
+        <v>0.73921971252566698</v>
+      </c>
+      <c r="H36">
+        <v>0.80903490759753605</v>
+      </c>
+      <c r="I36">
+        <v>0.79470198675496695</v>
+      </c>
+      <c r="J36">
+        <v>0.54959566524277803</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>3600</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0.85022072867870602</v>
+      </c>
+      <c r="E37">
+        <v>0.5</v>
+      </c>
+      <c r="F37">
+        <v>0.768993839835729</v>
+      </c>
+      <c r="G37">
+        <v>0.731006160164271</v>
+      </c>
+      <c r="H37">
+        <v>0.806981519507187</v>
+      </c>
+      <c r="I37">
+        <v>0.79111111111111099</v>
+      </c>
+      <c r="J37">
+        <v>0.53954713520795505</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>3700</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0.84982860323229603</v>
+      </c>
+      <c r="E38">
+        <v>0.5</v>
+      </c>
+      <c r="F38">
+        <v>0.77618069815195101</v>
+      </c>
+      <c r="G38">
+        <v>0.74332648870636597</v>
+      </c>
+      <c r="H38">
+        <v>0.80903490759753605</v>
+      </c>
+      <c r="I38">
+        <v>0.795604395604396</v>
+      </c>
+      <c r="J38">
+        <v>0.553557708359246</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>3800</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0.84962199950246498</v>
+      </c>
+      <c r="E39">
+        <v>0.5</v>
+      </c>
+      <c r="F39">
+        <v>0.76386036960985604</v>
+      </c>
+      <c r="G39">
+        <v>0.73511293634496899</v>
+      </c>
+      <c r="H39">
+        <v>0.79260780287474297</v>
+      </c>
+      <c r="I39">
+        <v>0.77995642701525103</v>
+      </c>
+      <c r="J39">
+        <v>0.52859514025632104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>3900</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0.84306970978500695</v>
+      </c>
+      <c r="E40">
+        <v>0.5</v>
+      </c>
+      <c r="F40">
+        <v>0.75564681724845995</v>
+      </c>
+      <c r="G40">
+        <v>0.72689938398357301</v>
+      </c>
+      <c r="H40">
+        <v>0.78439425051334699</v>
+      </c>
+      <c r="I40">
+        <v>0.77124183006535996</v>
+      </c>
+      <c r="J40">
+        <v>0.51214081682421797</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>4000</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0.83103188022043495</v>
+      </c>
+      <c r="E41">
+        <v>0.5</v>
+      </c>
+      <c r="F41">
+        <v>0.75462012320328498</v>
+      </c>
+      <c r="G41">
+        <v>0.72689938398357301</v>
+      </c>
+      <c r="H41">
+        <v>0.78234086242299805</v>
+      </c>
+      <c r="I41">
+        <v>0.76956521739130401</v>
+      </c>
+      <c r="J41">
+        <v>0.51002469579729803</v>
       </c>
     </row>
   </sheetData>
@@ -3078,11 +4794,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1" activeCellId="1" sqref="B1:B1048576 I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3113,54 +4829,1749 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>0.51115735923228101</v>
+      </c>
+      <c r="D2">
+        <v>0.510752688172043</v>
+      </c>
+      <c r="E2">
+        <v>0.39784946236559099</v>
+      </c>
+      <c r="F2">
+        <v>0.62365591397849496</v>
+      </c>
+      <c r="G2">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="H2">
+        <v>0.44848484848484799</v>
+      </c>
+      <c r="I2">
+        <v>2.2075539284417401E-2</v>
+      </c>
+    </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>0.58792924037461003</v>
+      </c>
+      <c r="D3">
+        <v>0.54838709677419395</v>
+      </c>
+      <c r="E3">
+        <v>0.56989247311827995</v>
+      </c>
+      <c r="F3">
+        <v>0.52688172043010795</v>
+      </c>
+      <c r="G3">
+        <v>0.54639175257731998</v>
+      </c>
+      <c r="H3">
+        <v>0.557894736842105</v>
+      </c>
+      <c r="I3">
+        <v>9.6863830426280106E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-    </row>
-    <row r="9" spans="1:9" s="1" customFormat="1"/>
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>0.65805295409873998</v>
+      </c>
+      <c r="D4">
+        <v>0.62365591397849496</v>
+      </c>
+      <c r="E4">
+        <v>0.63440860215053796</v>
+      </c>
+      <c r="F4">
+        <v>0.61290322580645196</v>
+      </c>
+      <c r="G4">
+        <v>0.62105263157894697</v>
+      </c>
+      <c r="H4">
+        <v>0.62765957446808496</v>
+      </c>
+      <c r="I4">
+        <v>0.247369036338036</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>0.65383281304197005</v>
+      </c>
+      <c r="D5">
+        <v>0.59139784946236595</v>
+      </c>
+      <c r="E5">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="F5">
+        <v>0.51612903225806495</v>
+      </c>
+      <c r="G5">
+        <v>0.579439252336449</v>
+      </c>
+      <c r="H5">
+        <v>0.62</v>
+      </c>
+      <c r="I5">
+        <v>0.184902799625527</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>0.649323621227888</v>
+      </c>
+      <c r="D6">
+        <v>0.58064516129032295</v>
+      </c>
+      <c r="E6">
+        <v>0.67741935483870996</v>
+      </c>
+      <c r="F6">
+        <v>0.483870967741935</v>
+      </c>
+      <c r="G6">
+        <v>0.56756756756756799</v>
+      </c>
+      <c r="H6">
+        <v>0.61764705882352899</v>
+      </c>
+      <c r="I6">
+        <v>0.16439898730535701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>60</v>
+      </c>
+      <c r="C7">
+        <v>0.69060006937218199</v>
+      </c>
+      <c r="D7">
+        <v>0.63440860215053796</v>
+      </c>
+      <c r="E7">
+        <v>0.69892473118279597</v>
+      </c>
+      <c r="F7">
+        <v>0.56989247311827995</v>
+      </c>
+      <c r="G7">
+        <v>0.61904761904761896</v>
+      </c>
+      <c r="H7">
+        <v>0.65656565656565702</v>
+      </c>
+      <c r="I7">
+        <v>0.27108335359681501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>70</v>
+      </c>
+      <c r="C8">
+        <v>0.69464677997456403</v>
+      </c>
+      <c r="D8">
+        <v>0.64516129032258096</v>
+      </c>
+      <c r="E8">
+        <v>0.69892473118279597</v>
+      </c>
+      <c r="F8">
+        <v>0.59139784946236595</v>
+      </c>
+      <c r="G8">
+        <v>0.63106796116504904</v>
+      </c>
+      <c r="H8">
+        <v>0.66326530612244905</v>
+      </c>
+      <c r="I8">
+        <v>0.292015635472474</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>80</v>
+      </c>
+      <c r="C9">
+        <v>0.71846456237715295</v>
+      </c>
+      <c r="D9">
+        <v>0.66129032258064502</v>
+      </c>
+      <c r="E9">
+        <v>0.73118279569892497</v>
+      </c>
+      <c r="F9">
+        <v>0.59139784946236595</v>
+      </c>
+      <c r="G9">
+        <v>0.64150943396226401</v>
+      </c>
+      <c r="H9">
+        <v>0.68341708542713597</v>
+      </c>
+      <c r="I9">
+        <v>0.325779182072302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>90</v>
+      </c>
+      <c r="C10">
+        <v>0.72921725054919595</v>
+      </c>
+      <c r="D10">
+        <v>0.67204301075268802</v>
+      </c>
+      <c r="E10">
+        <v>0.70967741935483897</v>
+      </c>
+      <c r="F10">
+        <v>0.63440860215053796</v>
+      </c>
+      <c r="G10">
+        <v>0.66</v>
+      </c>
+      <c r="H10">
+        <v>0.68393782383419699</v>
+      </c>
+      <c r="I10">
+        <v>0.34506487425100302</v>
+      </c>
+    </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>0.72436119782633801</v>
+      </c>
+      <c r="D11">
+        <v>0.64516129032258096</v>
+      </c>
+      <c r="E11">
+        <v>0.67741935483870996</v>
+      </c>
+      <c r="F11">
+        <v>0.61290322580645196</v>
+      </c>
+      <c r="G11">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="H11">
+        <v>0.65625</v>
+      </c>
+      <c r="I11">
+        <v>0.29092868272585598</v>
+      </c>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>110</v>
+      </c>
+      <c r="C12">
+        <v>0.75176320961960896</v>
+      </c>
+      <c r="D12">
+        <v>0.65591397849462396</v>
+      </c>
+      <c r="E12">
+        <v>0.68817204301075297</v>
+      </c>
+      <c r="F12">
+        <v>0.62365591397849496</v>
+      </c>
+      <c r="G12">
+        <v>0.64646464646464696</v>
+      </c>
+      <c r="H12">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="I12">
+        <v>0.31247895552036398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>120</v>
+      </c>
+      <c r="C13">
+        <v>0.77407792808417097</v>
+      </c>
+      <c r="D13">
+        <v>0.69354838709677402</v>
+      </c>
+      <c r="E13">
+        <v>0.73118279569892497</v>
+      </c>
+      <c r="F13">
+        <v>0.65591397849462396</v>
+      </c>
+      <c r="G13">
+        <v>0.68</v>
+      </c>
+      <c r="H13">
+        <v>0.704663212435233</v>
+      </c>
+      <c r="I13">
+        <v>0.388197983532378</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>130</v>
+      </c>
+      <c r="C14">
+        <v>0.77743091686900201</v>
+      </c>
+      <c r="D14">
+        <v>0.67741935483870996</v>
+      </c>
+      <c r="E14">
+        <v>0.73118279569892497</v>
+      </c>
+      <c r="F14">
+        <v>0.62365591397849496</v>
+      </c>
+      <c r="G14">
+        <v>0.66019417475728204</v>
+      </c>
+      <c r="H14">
+        <v>0.69387755102040805</v>
+      </c>
+      <c r="I14">
+        <v>0.35690799891080199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>140</v>
+      </c>
+      <c r="C15">
+        <v>0.77465602959879798</v>
+      </c>
+      <c r="D15">
+        <v>0.68279569892473102</v>
+      </c>
+      <c r="E15">
+        <v>0.73118279569892497</v>
+      </c>
+      <c r="F15">
+        <v>0.63440860215053796</v>
+      </c>
+      <c r="G15">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="H15">
+        <v>0.69743589743589696</v>
+      </c>
+      <c r="I15">
+        <v>0.36731544334622701</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>150</v>
+      </c>
+      <c r="C16">
+        <v>0.77893398080703002</v>
+      </c>
+      <c r="D16">
+        <v>0.67204301075268802</v>
+      </c>
+      <c r="E16">
+        <v>0.74193548387096797</v>
+      </c>
+      <c r="F16">
+        <v>0.60215053763440896</v>
+      </c>
+      <c r="G16">
+        <v>0.65094339622641495</v>
+      </c>
+      <c r="H16">
+        <v>0.69346733668341698</v>
+      </c>
+      <c r="I16">
+        <v>0.34749779421045601</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>160</v>
+      </c>
+      <c r="C17">
+        <v>0.78124638686553405</v>
+      </c>
+      <c r="D17">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="E17">
+        <v>0.75268817204301097</v>
+      </c>
+      <c r="F17">
+        <v>0.58064516129032295</v>
+      </c>
+      <c r="G17">
+        <v>0.64220183486238502</v>
+      </c>
+      <c r="H17">
+        <v>0.69306930693069302</v>
+      </c>
+      <c r="I17">
+        <v>0.33837875039718801</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>170</v>
+      </c>
+      <c r="C18">
+        <v>0.77477164990172298</v>
+      </c>
+      <c r="D18">
+        <v>0.69354838709677402</v>
+      </c>
+      <c r="E18">
+        <v>0.75268817204301097</v>
+      </c>
+      <c r="F18">
+        <v>0.63440860215053796</v>
+      </c>
+      <c r="G18">
+        <v>0.67307692307692302</v>
+      </c>
+      <c r="H18">
+        <v>0.71065989847715705</v>
+      </c>
+      <c r="I18">
+        <v>0.38983327364178899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>180</v>
+      </c>
+      <c r="C19">
+        <v>0.76852815354376203</v>
+      </c>
+      <c r="D19">
+        <v>0.68817204301075297</v>
+      </c>
+      <c r="E19">
+        <v>0.74193548387096797</v>
+      </c>
+      <c r="F19">
+        <v>0.63440860215053796</v>
+      </c>
+      <c r="G19">
+        <v>0.66990291262135904</v>
+      </c>
+      <c r="H19">
+        <v>0.70408163265306101</v>
+      </c>
+      <c r="I19">
+        <v>0.37853878672357799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>190</v>
+      </c>
+      <c r="C20">
+        <v>0.76875939414961203</v>
+      </c>
+      <c r="D20">
+        <v>0.68279569892473102</v>
+      </c>
+      <c r="E20">
+        <v>0.77419354838709697</v>
+      </c>
+      <c r="F20">
+        <v>0.59139784946236595</v>
+      </c>
+      <c r="G20">
+        <v>0.65454545454545499</v>
+      </c>
+      <c r="H20">
+        <v>0.70935960591132996</v>
+      </c>
+      <c r="I20">
+        <v>0.37185684337083602</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>200</v>
+      </c>
+      <c r="C21">
+        <v>0.75858480749219603</v>
+      </c>
+      <c r="D21">
+        <v>0.70967741935483897</v>
+      </c>
+      <c r="E21">
+        <v>0.77419354838709697</v>
+      </c>
+      <c r="F21">
+        <v>0.64516129032258096</v>
+      </c>
+      <c r="G21">
+        <v>0.68571428571428605</v>
+      </c>
+      <c r="H21">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="I21">
+        <v>0.422890031611031</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>210</v>
+      </c>
+      <c r="C22">
+        <v>0.76494392415308199</v>
+      </c>
+      <c r="D22">
+        <v>0.69892473118279597</v>
+      </c>
+      <c r="E22">
+        <v>0.75268817204301097</v>
+      </c>
+      <c r="F22">
+        <v>0.64516129032258096</v>
+      </c>
+      <c r="G22">
+        <v>0.67961165048543704</v>
+      </c>
+      <c r="H22">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="I22">
+        <v>0.40016957453635399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>220</v>
+      </c>
+      <c r="C23">
+        <v>0.77373106717539697</v>
+      </c>
+      <c r="D23">
+        <v>0.69354838709677402</v>
+      </c>
+      <c r="E23">
+        <v>0.74193548387096797</v>
+      </c>
+      <c r="F23">
+        <v>0.64516129032258096</v>
+      </c>
+      <c r="G23">
+        <v>0.67647058823529405</v>
+      </c>
+      <c r="H23">
+        <v>0.70769230769230795</v>
+      </c>
+      <c r="I23">
+        <v>0.388922234131299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>230</v>
+      </c>
+      <c r="C24">
+        <v>0.75800670597757003</v>
+      </c>
+      <c r="D24">
+        <v>0.68817204301075297</v>
+      </c>
+      <c r="E24">
+        <v>0.73118279569892497</v>
+      </c>
+      <c r="F24">
+        <v>0.64516129032258096</v>
+      </c>
+      <c r="G24">
+        <v>0.67326732673267298</v>
+      </c>
+      <c r="H24">
+        <v>0.70103092783505205</v>
+      </c>
+      <c r="I24">
+        <v>0.37774427813297401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>240</v>
+      </c>
+      <c r="C25">
+        <v>0.76760319112036102</v>
+      </c>
+      <c r="D25">
+        <v>0.69354838709677402</v>
+      </c>
+      <c r="E25">
+        <v>0.75268817204301097</v>
+      </c>
+      <c r="F25">
+        <v>0.63440860215053796</v>
+      </c>
+      <c r="G25">
+        <v>0.67307692307692302</v>
+      </c>
+      <c r="H25">
+        <v>0.71065989847715705</v>
+      </c>
+      <c r="I25">
+        <v>0.38983327364178899</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>250</v>
+      </c>
+      <c r="C26">
+        <v>0.77269048444906996</v>
+      </c>
+      <c r="D26">
+        <v>0.68817204301075297</v>
+      </c>
+      <c r="E26">
+        <v>0.72043010752688197</v>
+      </c>
+      <c r="F26">
+        <v>0.65591397849462396</v>
+      </c>
+      <c r="G26">
+        <v>0.67676767676767702</v>
+      </c>
+      <c r="H26">
+        <v>0.69791666666666696</v>
+      </c>
+      <c r="I26">
+        <v>0.37712977390388802</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>260</v>
+      </c>
+      <c r="C27">
+        <v>0.78147762747138505</v>
+      </c>
+      <c r="D27">
+        <v>0.67741935483870996</v>
+      </c>
+      <c r="E27">
+        <v>0.74193548387096797</v>
+      </c>
+      <c r="F27">
+        <v>0.61290322580645196</v>
+      </c>
+      <c r="G27">
+        <v>0.65714285714285703</v>
+      </c>
+      <c r="H27">
+        <v>0.69696969696969702</v>
+      </c>
+      <c r="I27">
+        <v>0.35783002674779602</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>270</v>
+      </c>
+      <c r="C28">
+        <v>0.786911781708868</v>
+      </c>
+      <c r="D28">
+        <v>0.70967741935483897</v>
+      </c>
+      <c r="E28">
+        <v>0.77419354838709697</v>
+      </c>
+      <c r="F28">
+        <v>0.64516129032258096</v>
+      </c>
+      <c r="G28">
+        <v>0.68571428571428605</v>
+      </c>
+      <c r="H28">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="I28">
+        <v>0.422890031611031</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>280</v>
+      </c>
+      <c r="C29">
+        <v>0.76945311596716404</v>
+      </c>
+      <c r="D29">
+        <v>0.69354838709677402</v>
+      </c>
+      <c r="E29">
+        <v>0.75268817204301097</v>
+      </c>
+      <c r="F29">
+        <v>0.63440860215053796</v>
+      </c>
+      <c r="G29">
+        <v>0.67307692307692302</v>
+      </c>
+      <c r="H29">
+        <v>0.71065989847715705</v>
+      </c>
+      <c r="I29">
+        <v>0.38983327364178899</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>290</v>
+      </c>
+      <c r="C30">
+        <v>0.77546537171927499</v>
+      </c>
+      <c r="D30">
+        <v>0.71505376344086002</v>
+      </c>
+      <c r="E30">
+        <v>0.78494623655913998</v>
+      </c>
+      <c r="F30">
+        <v>0.64516129032258096</v>
+      </c>
+      <c r="G30">
+        <v>0.68867924528301905</v>
+      </c>
+      <c r="H30">
+        <v>0.733668341708543</v>
+      </c>
+      <c r="I30">
+        <v>0.43437224276306902</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>300</v>
+      </c>
+      <c r="C31">
+        <v>0.78159324777430905</v>
+      </c>
+      <c r="D31">
+        <v>0.74193548387096797</v>
+      </c>
+      <c r="E31">
+        <v>0.79569892473118298</v>
+      </c>
+      <c r="F31">
+        <v>0.68817204301075297</v>
+      </c>
+      <c r="G31">
+        <v>0.71844660194174803</v>
+      </c>
+      <c r="H31">
+        <v>0.75510204081632604</v>
+      </c>
+      <c r="I31">
+        <v>0.48669272578745698</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>310</v>
+      </c>
+      <c r="C32">
+        <v>0.786911781708868</v>
+      </c>
+      <c r="D32">
+        <v>0.71505376344086002</v>
+      </c>
+      <c r="E32">
+        <v>0.79569892473118298</v>
+      </c>
+      <c r="F32">
+        <v>0.63440860215053796</v>
+      </c>
+      <c r="G32">
+        <v>0.68518518518518501</v>
+      </c>
+      <c r="H32">
+        <v>0.73631840796019898</v>
+      </c>
+      <c r="I32">
+        <v>0.43581363364040898</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>320</v>
+      </c>
+      <c r="C33">
+        <v>0.78587119898254199</v>
+      </c>
+      <c r="D33">
+        <v>0.72043010752688197</v>
+      </c>
+      <c r="E33">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="F33">
+        <v>0.62365591397849496</v>
+      </c>
+      <c r="G33">
+        <v>0.68468468468468502</v>
+      </c>
+      <c r="H33">
+        <v>0.74509803921568596</v>
+      </c>
+      <c r="I33">
+        <v>0.449357231967977</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>330</v>
+      </c>
+      <c r="C34">
+        <v>0.787374262920569</v>
+      </c>
+      <c r="D34">
+        <v>0.71505376344086002</v>
+      </c>
+      <c r="E34">
+        <v>0.77419354838709697</v>
+      </c>
+      <c r="F34">
+        <v>0.65591397849462396</v>
+      </c>
+      <c r="G34">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="H34">
+        <v>0.730964467005076</v>
+      </c>
+      <c r="I34">
+        <v>0.43314808182421</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>340</v>
+      </c>
+      <c r="C35">
+        <v>0.78575557867961598</v>
+      </c>
+      <c r="D35">
+        <v>0.73118279569892497</v>
+      </c>
+      <c r="E35">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="F35">
+        <v>0.64516129032258096</v>
+      </c>
+      <c r="G35">
+        <v>0.69724770642201805</v>
+      </c>
+      <c r="H35">
+        <v>0.75247524752475203</v>
+      </c>
+      <c r="I35">
+        <v>0.46936407313158302</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>350</v>
+      </c>
+      <c r="C36">
+        <v>0.79627702624580898</v>
+      </c>
+      <c r="D36">
+        <v>0.72580645161290303</v>
+      </c>
+      <c r="E36">
+        <v>0.82795698924731198</v>
+      </c>
+      <c r="F36">
+        <v>0.62365591397849496</v>
+      </c>
+      <c r="G36">
+        <v>0.6875</v>
+      </c>
+      <c r="H36">
+        <v>0.75121951219512195</v>
+      </c>
+      <c r="I36">
+        <v>0.46134351392193401</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>360</v>
+      </c>
+      <c r="C37">
+        <v>0.79916753381893901</v>
+      </c>
+      <c r="D37">
+        <v>0.74193548387096797</v>
+      </c>
+      <c r="E37">
+        <v>0.83870967741935498</v>
+      </c>
+      <c r="F37">
+        <v>0.64516129032258096</v>
+      </c>
+      <c r="G37">
+        <v>0.70270270270270296</v>
+      </c>
+      <c r="H37">
+        <v>0.76470588235294101</v>
+      </c>
+      <c r="I37">
+        <v>0.49319696191607199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>370</v>
+      </c>
+      <c r="C38">
+        <v>0.797433229275061</v>
+      </c>
+      <c r="D38">
+        <v>0.74193548387096797</v>
+      </c>
+      <c r="E38">
+        <v>0.82795698924731198</v>
+      </c>
+      <c r="F38">
+        <v>0.65591397849462396</v>
+      </c>
+      <c r="G38">
+        <v>0.70642201834862395</v>
+      </c>
+      <c r="H38">
+        <v>0.76237623762376205</v>
+      </c>
+      <c r="I38">
+        <v>0.49119496025398202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>380</v>
+      </c>
+      <c r="C39">
+        <v>0.787605503526419</v>
+      </c>
+      <c r="D39">
+        <v>0.71505376344086002</v>
+      </c>
+      <c r="E39">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="F39">
+        <v>0.61290322580645196</v>
+      </c>
+      <c r="G39">
+        <v>0.67857142857142905</v>
+      </c>
+      <c r="H39">
+        <v>0.741463414634146</v>
+      </c>
+      <c r="I39">
+        <v>0.43937477516374701</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>390</v>
+      </c>
+      <c r="C40">
+        <v>0.78587119898254099</v>
+      </c>
+      <c r="D40">
+        <v>0.73118279569892497</v>
+      </c>
+      <c r="E40">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="F40">
+        <v>0.64516129032258096</v>
+      </c>
+      <c r="G40">
+        <v>0.69724770642201805</v>
+      </c>
+      <c r="H40">
+        <v>0.75247524752475203</v>
+      </c>
+      <c r="I40">
+        <v>0.46936407313158302</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>400</v>
+      </c>
+      <c r="C41">
+        <v>0.79095849231125004</v>
+      </c>
+      <c r="D41">
+        <v>0.70430107526881702</v>
+      </c>
+      <c r="E41">
+        <v>0.80645161290322598</v>
+      </c>
+      <c r="F41">
+        <v>0.60215053763440896</v>
+      </c>
+      <c r="G41">
+        <v>0.66964285714285698</v>
+      </c>
+      <c r="H41">
+        <v>0.73170731707317105</v>
+      </c>
+      <c r="I41">
+        <v>0.41740603640555901</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>410</v>
+      </c>
+      <c r="C42">
+        <v>0.79303965776390395</v>
+      </c>
+      <c r="D42">
+        <v>0.72580645161290303</v>
+      </c>
+      <c r="E42">
+        <v>0.78494623655913998</v>
+      </c>
+      <c r="F42">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="G42">
+        <v>0.70192307692307698</v>
+      </c>
+      <c r="H42">
+        <v>0.74111675126903598</v>
+      </c>
+      <c r="I42">
+        <v>0.45480548591542003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>420</v>
+      </c>
+      <c r="C43">
+        <v>0.79662388715458499</v>
+      </c>
+      <c r="D43">
+        <v>0.75268817204301097</v>
+      </c>
+      <c r="E43">
+        <v>0.80645161290322598</v>
+      </c>
+      <c r="F43">
+        <v>0.69892473118279597</v>
+      </c>
+      <c r="G43">
+        <v>0.72815533980582503</v>
+      </c>
+      <c r="H43">
+        <v>0.76530612244898</v>
+      </c>
+      <c r="I43">
+        <v>0.50832351360023298</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>430</v>
+      </c>
+      <c r="C44">
+        <v>0.79835819169846201</v>
+      </c>
+      <c r="D44">
+        <v>0.72043010752688197</v>
+      </c>
+      <c r="E44">
+        <v>0.79569892473118298</v>
+      </c>
+      <c r="F44">
+        <v>0.64516129032258096</v>
+      </c>
+      <c r="G44">
+        <v>0.69158878504672905</v>
+      </c>
+      <c r="H44">
+        <v>0.74</v>
+      </c>
+      <c r="I44">
+        <v>0.445942046155682</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>440</v>
+      </c>
+      <c r="C45">
+        <v>0.79280841715805295</v>
+      </c>
+      <c r="D45">
+        <v>0.71505376344086002</v>
+      </c>
+      <c r="E45">
+        <v>0.78494623655913998</v>
+      </c>
+      <c r="F45">
+        <v>0.64516129032258096</v>
+      </c>
+      <c r="G45">
+        <v>0.68867924528301905</v>
+      </c>
+      <c r="H45">
+        <v>0.733668341708543</v>
+      </c>
+      <c r="I45">
+        <v>0.43437224276306902</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>450</v>
+      </c>
+      <c r="C46">
+        <v>0.79118973291710004</v>
+      </c>
+      <c r="D46">
+        <v>0.72580645161290303</v>
+      </c>
+      <c r="E46">
+        <v>0.79569892473118298</v>
+      </c>
+      <c r="F46">
+        <v>0.65591397849462396</v>
+      </c>
+      <c r="G46">
+        <v>0.69811320754716999</v>
+      </c>
+      <c r="H46">
+        <v>0.74371859296482401</v>
+      </c>
+      <c r="I46">
+        <v>0.45609085490122298</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>460</v>
+      </c>
+      <c r="C47">
+        <v>0.78876170655567102</v>
+      </c>
+      <c r="D47">
+        <v>0.72043010752688197</v>
+      </c>
+      <c r="E47">
+        <v>0.80645161290322598</v>
+      </c>
+      <c r="F47">
+        <v>0.63440860215053796</v>
+      </c>
+      <c r="G47">
+        <v>0.68807339449541305</v>
+      </c>
+      <c r="H47">
+        <v>0.74257425742574301</v>
+      </c>
+      <c r="I47">
+        <v>0.44753318600918401</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>470</v>
+      </c>
+      <c r="C48">
+        <v>0.78899294716152202</v>
+      </c>
+      <c r="D48">
+        <v>0.73118279569892497</v>
+      </c>
+      <c r="E48">
+        <v>0.79569892473118298</v>
+      </c>
+      <c r="F48">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="G48">
+        <v>0.70476190476190503</v>
+      </c>
+      <c r="H48">
+        <v>0.74747474747474796</v>
+      </c>
+      <c r="I48">
+        <v>0.46626336818652098</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>480</v>
+      </c>
+      <c r="C49">
+        <v>0.78806798473812001</v>
+      </c>
+      <c r="D49">
+        <v>0.74731182795698903</v>
+      </c>
+      <c r="E49">
+        <v>0.80645161290322598</v>
+      </c>
+      <c r="F49">
+        <v>0.68817204301075297</v>
+      </c>
+      <c r="G49">
+        <v>0.72115384615384603</v>
+      </c>
+      <c r="H49">
+        <v>0.76142131979695404</v>
+      </c>
+      <c r="I49">
+        <v>0.49812029409784098</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>490</v>
+      </c>
+      <c r="C50">
+        <v>0.79535206382240797</v>
+      </c>
+      <c r="D50">
+        <v>0.72580645161290303</v>
+      </c>
+      <c r="E50">
+        <v>0.78494623655913998</v>
+      </c>
+      <c r="F50">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="G50">
+        <v>0.70192307692307698</v>
+      </c>
+      <c r="H50">
+        <v>0.74111675126903598</v>
+      </c>
+      <c r="I50">
+        <v>0.45480548591542003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>500</v>
+      </c>
+      <c r="C51">
+        <v>0.79858943230431201</v>
+      </c>
+      <c r="D51">
+        <v>0.72580645161290303</v>
+      </c>
+      <c r="E51">
+        <v>0.78494623655913998</v>
+      </c>
+      <c r="F51">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="G51">
+        <v>0.70192307692307698</v>
+      </c>
+      <c r="H51">
+        <v>0.74111675126903598</v>
+      </c>
+      <c r="I51">
+        <v>0.45480548591542003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>510</v>
+      </c>
+      <c r="C52">
+        <v>0.80390796623887095</v>
+      </c>
+      <c r="D52">
+        <v>0.74731182795698903</v>
+      </c>
+      <c r="E52">
+        <v>0.79569892473118298</v>
+      </c>
+      <c r="F52">
+        <v>0.69892473118279597</v>
+      </c>
+      <c r="G52">
+        <v>0.72549019607843102</v>
+      </c>
+      <c r="H52">
+        <v>0.75897435897435905</v>
+      </c>
+      <c r="I52">
+        <v>0.49695618805665898</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>520</v>
+      </c>
+      <c r="C53">
+        <v>0.80263614290669405</v>
+      </c>
+      <c r="D53">
+        <v>0.73655913978494603</v>
+      </c>
+      <c r="E53">
+        <v>0.75268817204301097</v>
+      </c>
+      <c r="F53">
+        <v>0.72043010752688197</v>
+      </c>
+      <c r="G53">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="H53">
+        <v>0.74074074074074103</v>
+      </c>
+      <c r="I53">
+        <v>0.47336463120312899</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>530</v>
+      </c>
+      <c r="C54">
+        <v>0.79546768412533198</v>
+      </c>
+      <c r="D54">
+        <v>0.70967741935483897</v>
+      </c>
+      <c r="E54">
+        <v>0.75268817204301097</v>
+      </c>
+      <c r="F54">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="G54">
+        <v>0.69306930693069302</v>
+      </c>
+      <c r="H54">
+        <v>0.72164948453608202</v>
+      </c>
+      <c r="I54">
+        <v>0.42091505277674202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>540</v>
+      </c>
+      <c r="C55">
+        <v>0.80136431957451704</v>
+      </c>
+      <c r="D55">
+        <v>0.73655913978494603</v>
+      </c>
+      <c r="E55">
+        <v>0.78494623655913998</v>
+      </c>
+      <c r="F55">
+        <v>0.68817204301075297</v>
+      </c>
+      <c r="G55">
+        <v>0.71568627450980404</v>
+      </c>
+      <c r="H55">
+        <v>0.74871794871794894</v>
+      </c>
+      <c r="I55">
+        <v>0.47534939727158698</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>550</v>
+      </c>
+      <c r="C56">
+        <v>0.77592785293097399</v>
+      </c>
+      <c r="D56">
+        <v>0.71505376344086002</v>
+      </c>
+      <c r="E56">
+        <v>0.76344086021505397</v>
+      </c>
+      <c r="F56">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="G56">
+        <v>0.69607843137254899</v>
+      </c>
+      <c r="H56">
+        <v>0.72820512820512795</v>
+      </c>
+      <c r="I56">
+        <v>0.43213581570144299</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>560</v>
+      </c>
+      <c r="C57">
+        <v>0.80113307896866703</v>
+      </c>
+      <c r="D57">
+        <v>0.72043010752688197</v>
+      </c>
+      <c r="E57">
+        <v>0.80645161290322598</v>
+      </c>
+      <c r="F57">
+        <v>0.63440860215053796</v>
+      </c>
+      <c r="G57">
+        <v>0.68807339449541305</v>
+      </c>
+      <c r="H57">
+        <v>0.74257425742574301</v>
+      </c>
+      <c r="I57">
+        <v>0.44753318600918401</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>570</v>
+      </c>
+      <c r="C58">
+        <v>0.78436813504451397</v>
+      </c>
+      <c r="D58">
+        <v>0.69892473118279597</v>
+      </c>
+      <c r="E58">
+        <v>0.77419354838709697</v>
+      </c>
+      <c r="F58">
+        <v>0.62365591397849496</v>
+      </c>
+      <c r="G58">
+        <v>0.67289719626168198</v>
+      </c>
+      <c r="H58">
+        <v>0.72</v>
+      </c>
+      <c r="I58">
+        <v>0.40243550506732201</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>580</v>
+      </c>
+      <c r="C59">
+        <v>0.78587119898254099</v>
+      </c>
+      <c r="D59">
+        <v>0.71505376344086002</v>
+      </c>
+      <c r="E59">
+        <v>0.76344086021505397</v>
+      </c>
+      <c r="F59">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="G59">
+        <v>0.69607843137254899</v>
+      </c>
+      <c r="H59">
+        <v>0.72820512820512795</v>
+      </c>
+      <c r="I59">
+        <v>0.43213581570144299</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>590</v>
+      </c>
+      <c r="C60">
+        <v>0.79650826685165899</v>
+      </c>
+      <c r="D60">
+        <v>0.69892473118279597</v>
+      </c>
+      <c r="E60">
+        <v>0.74193548387096797</v>
+      </c>
+      <c r="F60">
+        <v>0.65591397849462396</v>
+      </c>
+      <c r="G60">
+        <v>0.683168316831683</v>
+      </c>
+      <c r="H60">
+        <v>0.71134020618556704</v>
+      </c>
+      <c r="I60">
+        <v>0.39932966545485798</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>600</v>
+      </c>
+      <c r="C61">
+        <v>0.79292403746097895</v>
+      </c>
+      <c r="D61">
+        <v>0.69892473118279597</v>
+      </c>
+      <c r="E61">
+        <v>0.77419354838709697</v>
+      </c>
+      <c r="F61">
+        <v>0.62365591397849496</v>
+      </c>
+      <c r="G61">
+        <v>0.67289719626168198</v>
+      </c>
+      <c r="H61">
+        <v>0.72</v>
+      </c>
+      <c r="I61">
+        <v>0.40243550506732201</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I42">
-    <sortCondition ref="B2"/>
+  <sortState ref="A2:I61">
+    <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code/R/PerfSearch_BLASTCLUST25_RUS_comb.xlsx
+++ b/Code/R/PerfSearch_BLASTCLUST25_RUS_comb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TenfoldCV_Coarse" sheetId="6" r:id="rId1"/>
@@ -710,23 +710,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="75082752"/>
-        <c:axId val="75084544"/>
+        <c:axId val="67592192"/>
+        <c:axId val="67593728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75082752"/>
+        <c:axId val="67592192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75084544"/>
+        <c:crossAx val="67593728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75084544"/>
+        <c:axId val="67593728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -734,7 +734,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75082752"/>
+        <c:crossAx val="67592192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -746,7 +746,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1040,11 +1040,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="75138176"/>
-        <c:axId val="75139712"/>
+        <c:axId val="70068096"/>
+        <c:axId val="70069632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75138176"/>
+        <c:axId val="70068096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2000"/>
@@ -1053,12 +1053,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75139712"/>
+        <c:crossAx val="70069632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75139712"/>
+        <c:axId val="70069632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.4"/>
@@ -1067,7 +1067,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75138176"/>
+        <c:crossAx val="70068096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1080,7 +1080,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1090,7 +1090,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1307,28 +1309,208 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>0.33647584455365698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49568649339211401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56625108365126398</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61331934872254901</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64506991885847897</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.63951574855849203</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.678995097635683</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70105716683821495</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.68440003020589102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.67469551864374899</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.69181150003755199</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.70901523983313597</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.73159561172738197</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.758754985760693</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.758754985760693</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.79104117506726601</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.80161342497392596</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.77455727863049695</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.77284119757830005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.77723945110727</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.77775018278738395</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.71810293860035201</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.73427795457439005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.73114982978171195</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.73175216583342095</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.737869936686951</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.74036983004008095</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.74538807773239801</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.75400905986531896</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.68850328459072696</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.68586748077411597</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.69168184348717698</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.62156166548710901</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.55303649896338303</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.55008849691526296</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.55794755539457397</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.561323156681659</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.570864207739887</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.57198328033522905</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.570864207739887</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.45667843349995701</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.466628262628691</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.472354723832481</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.47947464154289399</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.48125711084857098</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.48660182827669302</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.48835380157146602</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.49990663214804099</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.51316776648011697</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.50535432671061398</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.51139671837037404</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.54053216318619801</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.54583827388370898</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.54310878510469895</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54663903011860704</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.54487378698689004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.54760750263401203</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56177377686715602</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.56102054752220498</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.56077215409204395</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="75192960"/>
-        <c:axId val="75215232"/>
+        <c:axId val="70118784"/>
+        <c:axId val="70399104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75192960"/>
+        <c:axId val="70118784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75215232"/>
+        <c:crossAx val="70399104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75215232"/>
+        <c:axId val="70399104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.9"/>
@@ -1339,19 +1521,20 @@
         <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75192960"/>
+        <c:crossAx val="70118784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1361,7 +1544,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1403,46 +1588,47 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="75535488"/>
-        <c:axId val="75537024"/>
+        <c:axId val="70870912"/>
+        <c:axId val="70872448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75535488"/>
+        <c:axId val="70870912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75537024"/>
+        <c:crossAx val="70872448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75537024"/>
+        <c:axId val="70872448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.9"/>
-          <c:min val="0.65000000000000091"/>
+          <c:min val="0.65000000000000102"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75535488"/>
+        <c:crossAx val="70870912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1856,31 +2042,34 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="91568000"/>
-        <c:axId val="91566464"/>
+        <c:axId val="70888448"/>
+        <c:axId val="70951680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="91568000"/>
+        <c:axId val="70888448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="600"/>
+          <c:min val="300"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91566464"/>
+        <c:crossAx val="70951680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="91566464"/>
+        <c:axId val="70951680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.35000000000000003"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91568000"/>
+        <c:crossAx val="70888448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1893,7 +2082,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3967,9 +4156,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:J61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4010,6 +4199,30 @@
       <c r="B2">
         <v>10</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.74774949508578203</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <v>0.659137577002053</v>
+      </c>
+      <c r="G2">
+        <v>0.49691991786447598</v>
+      </c>
+      <c r="H2">
+        <v>0.82135523613963002</v>
+      </c>
+      <c r="I2">
+        <v>0.73556231003039496</v>
+      </c>
+      <c r="J2">
+        <v>0.33647584455365698</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
@@ -4018,6 +4231,30 @@
       <c r="B3">
         <v>20</v>
       </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.807179690431716</v>
+      </c>
+      <c r="E3">
+        <v>0.5</v>
+      </c>
+      <c r="F3">
+        <v>0.74743326488706396</v>
+      </c>
+      <c r="G3">
+        <v>0.71868583162217703</v>
+      </c>
+      <c r="H3">
+        <v>0.77618069815195101</v>
+      </c>
+      <c r="I3">
+        <v>0.762527233115468</v>
+      </c>
+      <c r="J3">
+        <v>0.49568649339211401</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
@@ -4026,6 +4263,30 @@
       <c r="B4">
         <v>30</v>
       </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.86305335014272599</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="F4">
+        <v>0.78131416837782297</v>
+      </c>
+      <c r="G4">
+        <v>0.72484599589322396</v>
+      </c>
+      <c r="H4">
+        <v>0.83778234086242298</v>
+      </c>
+      <c r="I4">
+        <v>0.81712962962962998</v>
+      </c>
+      <c r="J4">
+        <v>0.56625108365126398</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
@@ -4034,6 +4295,30 @@
       <c r="B5">
         <v>40</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.87621485101341301</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="F5">
+        <v>0.80595482546201203</v>
+      </c>
+      <c r="G5">
+        <v>0.77207392197125302</v>
+      </c>
+      <c r="H5">
+        <v>0.83983572895277203</v>
+      </c>
+      <c r="I5">
+        <v>0.82819383259911905</v>
+      </c>
+      <c r="J5">
+        <v>0.61331934872254901</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
@@ -4042,6 +4327,30 @@
       <c r="B6">
         <v>50</v>
       </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.89155834025526304</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="F6">
+        <v>0.82238193018480499</v>
+      </c>
+      <c r="G6">
+        <v>0.806981519507187</v>
+      </c>
+      <c r="H6">
+        <v>0.83778234086242298</v>
+      </c>
+      <c r="I6">
+        <v>0.83262711864406802</v>
+      </c>
+      <c r="J6">
+        <v>0.64506991885847897</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
@@ -4050,6 +4359,30 @@
       <c r="B7">
         <v>60</v>
       </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0.90436777150470804</v>
+      </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+      <c r="F7">
+        <v>0.81930184804928097</v>
+      </c>
+      <c r="G7">
+        <v>0.79260780287474297</v>
+      </c>
+      <c r="H7">
+        <v>0.84599589322381896</v>
+      </c>
+      <c r="I7">
+        <v>0.83731019522776595</v>
+      </c>
+      <c r="J7">
+        <v>0.63951574855849203</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
@@ -4058,6 +4391,30 @@
       <c r="B8">
         <v>70</v>
       </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0.92007387137441898</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="F8">
+        <v>0.83880903490759795</v>
+      </c>
+      <c r="G8">
+        <v>0.806981519507187</v>
+      </c>
+      <c r="H8">
+        <v>0.87063655030800802</v>
+      </c>
+      <c r="I8">
+        <v>0.86184210526315796</v>
+      </c>
+      <c r="J8">
+        <v>0.678995097635683</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
@@ -4066,6 +4423,30 @@
       <c r="B9">
         <v>80</v>
       </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0.93035346103411698</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+      <c r="F9">
+        <v>0.85010266940451795</v>
+      </c>
+      <c r="G9">
+        <v>0.82546201232032901</v>
+      </c>
+      <c r="H9">
+        <v>0.87474332648870601</v>
+      </c>
+      <c r="I9">
+        <v>0.86825053995680301</v>
+      </c>
+      <c r="J9">
+        <v>0.70105716683821495</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
@@ -4074,6 +4455,30 @@
       <c r="B10">
         <v>90</v>
       </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0.89879368720195596</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+      <c r="F10">
+        <v>0.83778234086242298</v>
+      </c>
+      <c r="G10">
+        <v>0.757700205338809</v>
+      </c>
+      <c r="H10">
+        <v>0.91786447638603696</v>
+      </c>
+      <c r="I10">
+        <v>0.90220048899755501</v>
+      </c>
+      <c r="J10">
+        <v>0.68440003020589102</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
@@ -4082,6 +4487,30 @@
       <c r="B11">
         <v>100</v>
       </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0.906568733687794</v>
+      </c>
+      <c r="E11">
+        <v>0.5</v>
+      </c>
+      <c r="F11">
+        <v>0.83264887063655002</v>
+      </c>
+      <c r="G11">
+        <v>0.74948665297741301</v>
+      </c>
+      <c r="H11">
+        <v>0.91581108829568802</v>
+      </c>
+      <c r="I11">
+        <v>0.899014778325123</v>
+      </c>
+      <c r="J11">
+        <v>0.67469551864374899</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
@@ -4090,6 +4519,30 @@
       <c r="B12">
         <v>110</v>
       </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0.90726022372232595</v>
+      </c>
+      <c r="E12">
+        <v>0.5</v>
+      </c>
+      <c r="F12">
+        <v>0.84188911704312097</v>
+      </c>
+      <c r="G12">
+        <v>0.76591375770020498</v>
+      </c>
+      <c r="H12">
+        <v>0.91786447638603696</v>
+      </c>
+      <c r="I12">
+        <v>0.90314769975786902</v>
+      </c>
+      <c r="J12">
+        <v>0.69181150003755199</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
@@ -4098,6 +4551,30 @@
       <c r="B13">
         <v>120</v>
       </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0.91794458803638102</v>
+      </c>
+      <c r="E13">
+        <v>0.5</v>
+      </c>
+      <c r="F13">
+        <v>0.852156057494867</v>
+      </c>
+      <c r="G13">
+        <v>0.79466119096509202</v>
+      </c>
+      <c r="H13">
+        <v>0.90965092402464098</v>
+      </c>
+      <c r="I13">
+        <v>0.89791183294663601</v>
+      </c>
+      <c r="J13">
+        <v>0.70901523983313597</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
@@ -4106,6 +4583,30 @@
       <c r="B14">
         <v>130</v>
       </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0.92134722497459698</v>
+      </c>
+      <c r="E14">
+        <v>0.5</v>
+      </c>
+      <c r="F14">
+        <v>0.86242299794661204</v>
+      </c>
+      <c r="G14">
+        <v>0.79466119096509202</v>
+      </c>
+      <c r="H14">
+        <v>0.93018480492813105</v>
+      </c>
+      <c r="I14">
+        <v>0.91923990498812302</v>
+      </c>
+      <c r="J14">
+        <v>0.73159561172738197</v>
+      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
@@ -4114,6 +4615,30 @@
       <c r="B15">
         <v>140</v>
       </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0.93337662173387004</v>
+      </c>
+      <c r="E15">
+        <v>0.5</v>
+      </c>
+      <c r="F15">
+        <v>0.87577002053388098</v>
+      </c>
+      <c r="G15">
+        <v>0.806981519507187</v>
+      </c>
+      <c r="H15">
+        <v>0.94455852156057496</v>
+      </c>
+      <c r="I15">
+        <v>0.93571428571428605</v>
+      </c>
+      <c r="J15">
+        <v>0.758754985760693</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
@@ -4122,370 +4647,1474 @@
       <c r="B16">
         <v>150</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0.939667494487054</v>
+      </c>
+      <c r="E16">
+        <v>0.5</v>
+      </c>
+      <c r="F16">
+        <v>0.87577002053388098</v>
+      </c>
+      <c r="G16">
+        <v>0.806981519507187</v>
+      </c>
+      <c r="H16">
+        <v>0.94455852156057496</v>
+      </c>
+      <c r="I16">
+        <v>0.93571428571428605</v>
+      </c>
+      <c r="J16">
+        <v>0.758754985760693</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>160</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0.94422542575125701</v>
+      </c>
+      <c r="E17">
+        <v>0.5</v>
+      </c>
+      <c r="F17">
+        <v>0.89219712525667305</v>
+      </c>
+      <c r="G17">
+        <v>0.82751540041067795</v>
+      </c>
+      <c r="H17">
+        <v>0.95687885010266904</v>
+      </c>
+      <c r="I17">
+        <v>0.95047169811320797</v>
+      </c>
+      <c r="J17">
+        <v>0.79104117506726601</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>170</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0.94820570985246799</v>
+      </c>
+      <c r="E18">
+        <v>0.5</v>
+      </c>
+      <c r="F18">
+        <v>0.89733059548254601</v>
+      </c>
+      <c r="G18">
+        <v>0.83162217659137605</v>
+      </c>
+      <c r="H18">
+        <v>0.96303901437371697</v>
+      </c>
+      <c r="I18">
+        <v>0.95744680851063801</v>
+      </c>
+      <c r="J18">
+        <v>0.80161342497392596</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <v>180</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0.93834776045773405</v>
+      </c>
+      <c r="E19">
+        <v>0.5</v>
+      </c>
+      <c r="F19">
+        <v>0.88090349075975405</v>
+      </c>
+      <c r="G19">
+        <v>0.79055441478439403</v>
+      </c>
+      <c r="H19">
+        <v>0.97125256673511295</v>
+      </c>
+      <c r="I19">
+        <v>0.96491228070175405</v>
+      </c>
+      <c r="J19">
+        <v>0.77455727863049695</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>190</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0.93993734425662701</v>
+      </c>
+      <c r="E20">
+        <v>0.5</v>
+      </c>
+      <c r="F20">
+        <v>0.88090349075975405</v>
+      </c>
+      <c r="G20">
+        <v>0.79671457905544196</v>
+      </c>
+      <c r="H20">
+        <v>0.96509240246406602</v>
+      </c>
+      <c r="I20">
+        <v>0.95802469135802504</v>
+      </c>
+      <c r="J20">
+        <v>0.77284119757830005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>200</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0.94739616054374698</v>
+      </c>
+      <c r="E21">
+        <v>0.5</v>
+      </c>
+      <c r="F21">
+        <v>0.88398357289527696</v>
+      </c>
+      <c r="G21">
+        <v>0.806981519507187</v>
+      </c>
+      <c r="H21">
+        <v>0.96098562628336803</v>
+      </c>
+      <c r="I21">
+        <v>0.95388349514563098</v>
+      </c>
+      <c r="J21">
+        <v>0.77723945110727</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
         <v>210</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0.94851350724588801</v>
+      </c>
+      <c r="E22">
+        <v>0.5</v>
+      </c>
+      <c r="F22">
+        <v>0.88398357289527696</v>
+      </c>
+      <c r="G22">
+        <v>0.80492813141683806</v>
+      </c>
+      <c r="H22">
+        <v>0.96303901437371697</v>
+      </c>
+      <c r="I22">
+        <v>0.95609756097561005</v>
+      </c>
+      <c r="J22">
+        <v>0.77775018278738395</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
         <v>220</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0.93278210896027802</v>
+      </c>
+      <c r="E23">
+        <v>0.5</v>
+      </c>
+      <c r="F23">
+        <v>0.84702258726899404</v>
+      </c>
+      <c r="G23">
+        <v>0.71868583162217703</v>
+      </c>
+      <c r="H23">
+        <v>0.97535934291581095</v>
+      </c>
+      <c r="I23">
+        <v>0.96685082872928196</v>
+      </c>
+      <c r="J23">
+        <v>0.71810293860035201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
         <v>230</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0.94017346280500402</v>
+      </c>
+      <c r="E24">
+        <v>0.5</v>
+      </c>
+      <c r="F24">
+        <v>0.85523613963039002</v>
+      </c>
+      <c r="G24">
+        <v>0.72895277207392195</v>
+      </c>
+      <c r="H24">
+        <v>0.98151950718685799</v>
+      </c>
+      <c r="I24">
+        <v>0.97527472527472503</v>
+      </c>
+      <c r="J24">
+        <v>0.73427795457439005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
         <v>240</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0.94181785983834398</v>
+      </c>
+      <c r="E25">
+        <v>0.5</v>
+      </c>
+      <c r="F25">
+        <v>0.85523613963039002</v>
+      </c>
+      <c r="G25">
+        <v>0.73716632443531804</v>
+      </c>
+      <c r="H25">
+        <v>0.97330595482546201</v>
+      </c>
+      <c r="I25">
+        <v>0.96505376344086002</v>
+      </c>
+      <c r="J25">
+        <v>0.73114982978171195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
         <v>250</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0.94366464419886298</v>
+      </c>
+      <c r="E26">
+        <v>0.5</v>
+      </c>
+      <c r="F26">
+        <v>0.85420944558521605</v>
+      </c>
+      <c r="G26">
+        <v>0.72895277207392195</v>
+      </c>
+      <c r="H26">
+        <v>0.97946611909650905</v>
+      </c>
+      <c r="I26">
+        <v>0.97260273972602695</v>
+      </c>
+      <c r="J26">
+        <v>0.73175216583342095</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
         <v>260</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0.94807500137033196</v>
+      </c>
+      <c r="E27">
+        <v>0.5</v>
+      </c>
+      <c r="F27">
+        <v>0.85831622176591404</v>
+      </c>
+      <c r="G27">
+        <v>0.73921971252566698</v>
+      </c>
+      <c r="H27">
+        <v>0.97741273100616</v>
+      </c>
+      <c r="I27">
+        <v>0.97035040431266895</v>
+      </c>
+      <c r="J27">
+        <v>0.737869936686951</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
         <v>270</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0.95126681817606895</v>
+      </c>
+      <c r="E28">
+        <v>0.5</v>
+      </c>
+      <c r="F28">
+        <v>0.85934291581108802</v>
+      </c>
+      <c r="G28">
+        <v>0.73921971252566698</v>
+      </c>
+      <c r="H28">
+        <v>0.97946611909650905</v>
+      </c>
+      <c r="I28">
+        <v>0.97297297297297303</v>
+      </c>
+      <c r="J28">
+        <v>0.74036983004008095</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
         <v>280</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0.95478329798582495</v>
+      </c>
+      <c r="E29">
+        <v>0.5</v>
+      </c>
+      <c r="F29">
+        <v>0.86139630390143695</v>
+      </c>
+      <c r="G29">
+        <v>0.73921971252566698</v>
+      </c>
+      <c r="H29">
+        <v>0.98357289527720704</v>
+      </c>
+      <c r="I29">
+        <v>0.97826086956521696</v>
+      </c>
+      <c r="J29">
+        <v>0.74538807773239801</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
         <v>290</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0.95446285138445697</v>
+      </c>
+      <c r="E30">
+        <v>0.5</v>
+      </c>
+      <c r="F30">
+        <v>0.86652977412731003</v>
+      </c>
+      <c r="G30">
+        <v>0.74948665297741301</v>
+      </c>
+      <c r="H30">
+        <v>0.98357289527720704</v>
+      </c>
+      <c r="I30">
+        <v>0.97855227882037499</v>
+      </c>
+      <c r="J30">
+        <v>0.75400905986531896</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
         <v>300</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0.944727177666558</v>
+      </c>
+      <c r="E31">
+        <v>0.5</v>
+      </c>
+      <c r="F31">
+        <v>0.82751540041067795</v>
+      </c>
+      <c r="G31">
+        <v>0.67351129363449702</v>
+      </c>
+      <c r="H31">
+        <v>0.98151950718685799</v>
+      </c>
+      <c r="I31">
+        <v>0.97329376854599403</v>
+      </c>
+      <c r="J31">
+        <v>0.68850328459072696</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
         <v>310</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0.94864843213067396</v>
+      </c>
+      <c r="E32">
+        <v>0.5</v>
+      </c>
+      <c r="F32">
+        <v>0.82648870636550298</v>
+      </c>
+      <c r="G32">
+        <v>0.67351129363449702</v>
+      </c>
+      <c r="H32">
+        <v>0.97946611909650905</v>
+      </c>
+      <c r="I32">
+        <v>0.97041420118343202</v>
+      </c>
+      <c r="J32">
+        <v>0.68586748077411597</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
         <v>320</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0.95141439226880298</v>
+      </c>
+      <c r="E33">
+        <v>0.5</v>
+      </c>
+      <c r="F33">
+        <v>0.83059548254620097</v>
+      </c>
+      <c r="G33">
+        <v>0.68377823408624205</v>
+      </c>
+      <c r="H33">
+        <v>0.97741273100616</v>
+      </c>
+      <c r="I33">
+        <v>0.96802325581395399</v>
+      </c>
+      <c r="J33">
+        <v>0.69168184348717698</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
         <v>330</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0.93824235039149195</v>
+      </c>
+      <c r="E34">
+        <v>0.5</v>
+      </c>
+      <c r="F34">
+        <v>0.78952772073921995</v>
+      </c>
+      <c r="G34">
+        <v>0.60780287474332695</v>
+      </c>
+      <c r="H34">
+        <v>0.97125256673511295</v>
+      </c>
+      <c r="I34">
+        <v>0.95483870967741902</v>
+      </c>
+      <c r="J34">
+        <v>0.62156166548710901</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
         <v>340</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0.92807238720068996</v>
+      </c>
+      <c r="E35">
+        <v>0.5</v>
+      </c>
+      <c r="F35">
+        <v>0.74640657084188899</v>
+      </c>
+      <c r="G35">
+        <v>0.51950718685831598</v>
+      </c>
+      <c r="H35">
+        <v>0.97330595482546201</v>
+      </c>
+      <c r="I35">
+        <v>0.95112781954887204</v>
+      </c>
+      <c r="J35">
+        <v>0.55303649896338303</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
         <v>350</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0.92975894826052397</v>
+      </c>
+      <c r="E36">
+        <v>0.5</v>
+      </c>
+      <c r="F36">
+        <v>0.74537987679671502</v>
+      </c>
+      <c r="G36">
+        <v>0.51950718685831598</v>
+      </c>
+      <c r="H36">
+        <v>0.97125256673511295</v>
+      </c>
+      <c r="I36">
+        <v>0.94756554307116103</v>
+      </c>
+      <c r="J36">
+        <v>0.55008849691526296</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
         <v>360</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0.93115036113488603</v>
+      </c>
+      <c r="E37">
+        <v>0.5</v>
+      </c>
+      <c r="F37">
+        <v>0.75462012320328498</v>
+      </c>
+      <c r="G37">
+        <v>0.55030800821355197</v>
+      </c>
+      <c r="H37">
+        <v>0.95893223819301798</v>
+      </c>
+      <c r="I37">
+        <v>0.93055555555555602</v>
+      </c>
+      <c r="J37">
+        <v>0.55794755539457397</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
         <v>370</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0.93175330671377699</v>
+      </c>
+      <c r="E38">
+        <v>0.5</v>
+      </c>
+      <c r="F38">
+        <v>0.75667351129363403</v>
+      </c>
+      <c r="G38">
+        <v>0.55441478439425096</v>
+      </c>
+      <c r="H38">
+        <v>0.95893223819301798</v>
+      </c>
+      <c r="I38">
+        <v>0.931034482758621</v>
+      </c>
+      <c r="J38">
+        <v>0.561323156681659</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
         <v>380</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0.93228457344762505</v>
+      </c>
+      <c r="E39">
+        <v>0.5</v>
+      </c>
+      <c r="F39">
+        <v>0.76180698151950699</v>
+      </c>
+      <c r="G39">
+        <v>0.56262833675564705</v>
+      </c>
+      <c r="H39">
+        <v>0.96098562628336803</v>
+      </c>
+      <c r="I39">
+        <v>0.93515358361774703</v>
+      </c>
+      <c r="J39">
+        <v>0.570864207739887</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
         <v>390</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0.93224662582378004</v>
+      </c>
+      <c r="E40">
+        <v>0.5</v>
+      </c>
+      <c r="F40">
+        <v>0.76180698151950699</v>
+      </c>
+      <c r="G40">
+        <v>0.560574948665298</v>
+      </c>
+      <c r="H40">
+        <v>0.96303901437371697</v>
+      </c>
+      <c r="I40">
+        <v>0.93814432989690699</v>
+      </c>
+      <c r="J40">
+        <v>0.57198328033522905</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
         <v>400</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0.93313207038019297</v>
+      </c>
+      <c r="E41">
+        <v>0.5</v>
+      </c>
+      <c r="F41">
+        <v>0.76180698151950699</v>
+      </c>
+      <c r="G41">
+        <v>0.56262833675564705</v>
+      </c>
+      <c r="H41">
+        <v>0.96098562628336803</v>
+      </c>
+      <c r="I41">
+        <v>0.93515358361774703</v>
+      </c>
+      <c r="J41">
+        <v>0.570864207739887</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
         <v>410</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>0.90875283026027998</v>
+      </c>
+      <c r="E42">
+        <v>0.5</v>
+      </c>
+      <c r="F42">
+        <v>0.69815195071868597</v>
+      </c>
+      <c r="G42">
+        <v>0.44969199178644798</v>
+      </c>
+      <c r="H42">
+        <v>0.94661190965092401</v>
+      </c>
+      <c r="I42">
+        <v>0.893877551020408</v>
+      </c>
+      <c r="J42">
+        <v>0.45667843349995701</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
         <v>420</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0.91248013020251495</v>
+      </c>
+      <c r="E43">
+        <v>0.5</v>
+      </c>
+      <c r="F43">
+        <v>0.70328542094455804</v>
+      </c>
+      <c r="G43">
+        <v>0.45790554414784401</v>
+      </c>
+      <c r="H43">
+        <v>0.94866529774127295</v>
+      </c>
+      <c r="I43">
+        <v>0.89919354838709697</v>
+      </c>
+      <c r="J43">
+        <v>0.466628262628691</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
         <v>430</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0.91145132795601502</v>
+      </c>
+      <c r="E44">
+        <v>0.5</v>
+      </c>
+      <c r="F44">
+        <v>0.70739219712525703</v>
+      </c>
+      <c r="G44">
+        <v>0.46817248459958899</v>
+      </c>
+      <c r="H44">
+        <v>0.94661190965092401</v>
+      </c>
+      <c r="I44">
+        <v>0.89763779527559096</v>
+      </c>
+      <c r="J44">
+        <v>0.472354723832481</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
         <v>440</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0.89588436937374105</v>
+      </c>
+      <c r="E45">
+        <v>0.5</v>
+      </c>
+      <c r="F45">
+        <v>0.72176591375770005</v>
+      </c>
+      <c r="G45">
+        <v>0.53182751540041096</v>
+      </c>
+      <c r="H45">
+        <v>0.91170431211499003</v>
+      </c>
+      <c r="I45">
+        <v>0.85761589403973504</v>
+      </c>
+      <c r="J45">
+        <v>0.47947464154289399</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
         <v>450</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0.90245352470179796</v>
+      </c>
+      <c r="E46">
+        <v>0.5</v>
+      </c>
+      <c r="F46">
+        <v>0.72279260780287502</v>
+      </c>
+      <c r="G46">
+        <v>0.53388090349076001</v>
+      </c>
+      <c r="H46">
+        <v>0.91170431211499003</v>
+      </c>
+      <c r="I46">
+        <v>0.85808580858085803</v>
+      </c>
+      <c r="J46">
+        <v>0.48125711084857098</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
         <v>460</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>0.90395456404505203</v>
+      </c>
+      <c r="E47">
+        <v>0.5</v>
+      </c>
+      <c r="F47">
+        <v>0.72587268993839804</v>
+      </c>
+      <c r="G47">
+        <v>0.54004106776180705</v>
+      </c>
+      <c r="H47">
+        <v>0.91170431211499003</v>
+      </c>
+      <c r="I47">
+        <v>0.85947712418300704</v>
+      </c>
+      <c r="J47">
+        <v>0.48660182827669302</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
         <v>470</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0.90347811054564797</v>
+      </c>
+      <c r="E48">
+        <v>0.5</v>
+      </c>
+      <c r="F48">
+        <v>0.72587268993839804</v>
+      </c>
+      <c r="G48">
+        <v>0.53593429158110895</v>
+      </c>
+      <c r="H48">
+        <v>0.91581108829568802</v>
+      </c>
+      <c r="I48">
+        <v>0.86423841059602602</v>
+      </c>
+      <c r="J48">
+        <v>0.48835380157146602</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
         <v>480</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>0.90435512229676196</v>
+      </c>
+      <c r="E49">
+        <v>0.5</v>
+      </c>
+      <c r="F49">
+        <v>0.73305954825462005</v>
+      </c>
+      <c r="G49">
+        <v>0.55236139630390102</v>
+      </c>
+      <c r="H49">
+        <v>0.91375770020533897</v>
+      </c>
+      <c r="I49">
+        <v>0.864951768488746</v>
+      </c>
+      <c r="J49">
+        <v>0.49990663214804099</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
         <v>490</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0.90976055049353299</v>
+      </c>
+      <c r="E50">
+        <v>0.5</v>
+      </c>
+      <c r="F50">
+        <v>0.74024640657084195</v>
+      </c>
+      <c r="G50">
+        <v>0.56468172484599599</v>
+      </c>
+      <c r="H50">
+        <v>0.91581108829568802</v>
+      </c>
+      <c r="I50">
+        <v>0.870253164556962</v>
+      </c>
+      <c r="J50">
+        <v>0.51316776648011697</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
         <v>500</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0.91032133204592702</v>
+      </c>
+      <c r="E51">
+        <v>0.5</v>
+      </c>
+      <c r="F51">
+        <v>0.73716632443531804</v>
+      </c>
+      <c r="G51">
+        <v>0.56468172484599599</v>
+      </c>
+      <c r="H51">
+        <v>0.90965092402464098</v>
+      </c>
+      <c r="I51">
+        <v>0.86206896551724099</v>
+      </c>
+      <c r="J51">
+        <v>0.50535432671061398</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
         <v>510</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>0.91012737752404704</v>
+      </c>
+      <c r="E52">
+        <v>0.5</v>
+      </c>
+      <c r="F52">
+        <v>0.73921971252566698</v>
+      </c>
+      <c r="G52">
+        <v>0.56262833675564705</v>
+      </c>
+      <c r="H52">
+        <v>0.91581108829568802</v>
+      </c>
+      <c r="I52">
+        <v>0.86984126984126997</v>
+      </c>
+      <c r="J52">
+        <v>0.51139671837037404</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
         <v>520</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>0.88693294654866695</v>
+      </c>
+      <c r="E53">
+        <v>0.5</v>
+      </c>
+      <c r="F53">
+        <v>0.75564681724845995</v>
+      </c>
+      <c r="G53">
+        <v>0.59342915811088304</v>
+      </c>
+      <c r="H53">
+        <v>0.91786447638603696</v>
+      </c>
+      <c r="I53">
+        <v>0.87841945288753798</v>
+      </c>
+      <c r="J53">
+        <v>0.54053216318619801</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
         <v>530</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>0.893059379598517</v>
+      </c>
+      <c r="E54">
+        <v>0.5</v>
+      </c>
+      <c r="F54">
+        <v>0.75872689938398397</v>
+      </c>
+      <c r="G54">
+        <v>0.59958932238192997</v>
+      </c>
+      <c r="H54">
+        <v>0.91786447638603696</v>
+      </c>
+      <c r="I54">
+        <v>0.87951807228915702</v>
+      </c>
+      <c r="J54">
+        <v>0.54583827388370898</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
         <v>540</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>0.89240583718783095</v>
+      </c>
+      <c r="E55">
+        <v>0.5</v>
+      </c>
+      <c r="F55">
+        <v>0.75667351129363403</v>
+      </c>
+      <c r="G55">
+        <v>0.59342915811088304</v>
+      </c>
+      <c r="H55">
+        <v>0.91991786447638602</v>
+      </c>
+      <c r="I55">
+        <v>0.88109756097560998</v>
+      </c>
+      <c r="J55">
+        <v>0.54310878510469895</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
         <v>550</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>0.89305094679321695</v>
+      </c>
+      <c r="E56">
+        <v>0.5</v>
+      </c>
+      <c r="F56">
+        <v>0.75872689938398397</v>
+      </c>
+      <c r="G56">
+        <v>0.59753593429158103</v>
+      </c>
+      <c r="H56">
+        <v>0.91991786447638602</v>
+      </c>
+      <c r="I56">
+        <v>0.88181818181818195</v>
+      </c>
+      <c r="J56">
+        <v>0.54663903011860704</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
         <v>560</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>0.89603615986912499</v>
+      </c>
+      <c r="E57">
+        <v>0.5</v>
+      </c>
+      <c r="F57">
+        <v>0.757700205338809</v>
+      </c>
+      <c r="G57">
+        <v>0.59548254620123198</v>
+      </c>
+      <c r="H57">
+        <v>0.91991786447638602</v>
+      </c>
+      <c r="I57">
+        <v>0.88145896656534894</v>
+      </c>
+      <c r="J57">
+        <v>0.54487378698689004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
         <v>570</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0.89459415016296695</v>
+      </c>
+      <c r="E58">
+        <v>0.5</v>
+      </c>
+      <c r="F58">
+        <v>0.75975359342915805</v>
+      </c>
+      <c r="G58">
+        <v>0.60164271047227902</v>
+      </c>
+      <c r="H58">
+        <v>0.91786447638603696</v>
+      </c>
+      <c r="I58">
+        <v>0.87987987987988003</v>
+      </c>
+      <c r="J58">
+        <v>0.54760750263401203</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
         <v>580</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>0.89350210187672396</v>
+      </c>
+      <c r="E59">
+        <v>0.5</v>
+      </c>
+      <c r="F59">
+        <v>0.76796714579055403</v>
+      </c>
+      <c r="G59">
+        <v>0.61806981519507198</v>
+      </c>
+      <c r="H59">
+        <v>0.91786447638603696</v>
+      </c>
+      <c r="I59">
+        <v>0.88269794721407602</v>
+      </c>
+      <c r="J59">
+        <v>0.56177377686715602</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
         <v>590</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0.89103972272936605</v>
+      </c>
+      <c r="E60">
+        <v>0.5</v>
+      </c>
+      <c r="F60">
+        <v>0.76796714579055403</v>
+      </c>
+      <c r="G60">
+        <v>0.62012320328542103</v>
+      </c>
+      <c r="H60">
+        <v>0.91581108829568802</v>
+      </c>
+      <c r="I60">
+        <v>0.88046647230320696</v>
+      </c>
+      <c r="J60">
+        <v>0.56102054752220498</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
         <v>600</v>
       </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>0.89433694960134302</v>
+      </c>
+      <c r="E61">
+        <v>0.5</v>
+      </c>
+      <c r="F61">
+        <v>0.76694045174537995</v>
+      </c>
+      <c r="G61">
+        <v>0.61396303901437399</v>
+      </c>
+      <c r="H61">
+        <v>0.91991786447638602</v>
+      </c>
+      <c r="I61">
+        <v>0.88461538461538503</v>
+      </c>
+      <c r="J61">
+        <v>0.56077215409204395</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:J61">
-    <sortCondition ref="A2"/>
+    <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4796,9 +6425,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" activeCellId="1" sqref="B1:B1048576 I1:I1048576"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Code/R/PerfSearch_BLASTCLUST25_RUS_comb.xlsx
+++ b/Code/R/PerfSearch_BLASTCLUST25_RUS_comb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TenfoldCV_Coarse" sheetId="6" r:id="rId1"/>
@@ -626,7 +626,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -710,23 +712,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="67592192"/>
-        <c:axId val="67593728"/>
+        <c:axId val="69234688"/>
+        <c:axId val="69236224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67592192"/>
+        <c:axId val="69234688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67593728"/>
+        <c:crossAx val="69236224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="67593728"/>
+        <c:axId val="69236224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -734,19 +736,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67592192"/>
+        <c:crossAx val="69234688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1040,11 +1043,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="70068096"/>
-        <c:axId val="70069632"/>
+        <c:axId val="77015680"/>
+        <c:axId val="79702272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70068096"/>
+        <c:axId val="77015680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2000"/>
@@ -1053,12 +1056,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70069632"/>
+        <c:crossAx val="79702272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70069632"/>
+        <c:axId val="79702272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.4"/>
@@ -1067,7 +1070,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70068096"/>
+        <c:crossAx val="77015680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1080,7 +1083,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1494,23 +1497,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="70118784"/>
-        <c:axId val="70399104"/>
+        <c:axId val="96331648"/>
+        <c:axId val="96333184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70118784"/>
+        <c:axId val="96331648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70399104"/>
+        <c:crossAx val="96333184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70399104"/>
+        <c:axId val="96333184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.9"/>
@@ -1521,7 +1524,7 @@
         <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70118784"/>
+        <c:crossAx val="96331648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1534,7 +1537,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1588,34 +1591,34 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="70870912"/>
-        <c:axId val="70872448"/>
+        <c:axId val="69218688"/>
+        <c:axId val="69220224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70870912"/>
+        <c:axId val="69218688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70872448"/>
+        <c:crossAx val="69220224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70872448"/>
+        <c:axId val="69220224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.9"/>
-          <c:min val="0.65000000000000102"/>
+          <c:min val="0.65000000000000113"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70870912"/>
+        <c:crossAx val="69218688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1628,7 +1631,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1669,184 +1672,184 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>460</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>470</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>530</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>540</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>570</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>580</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>590</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1858,195 +1861,195 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
+                  <c:v>0.50832351360023298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49812029409784098</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49695618805665898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49319696191607199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.49119496025398202</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48669272578745698</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.47534939727158698</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.47336463120312899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.46936407313158302</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.46936407313158302</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.46626336818652098</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.46134351392193401</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.45609085490122298</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.45480548591542003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.45480548591542003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.45480548591542003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.449357231967977</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.44753318600918401</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.44753318600918401</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.445942046155682</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.43937477516374701</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.43581363364040898</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.43437224276306902</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.43437224276306902</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.43314808182421</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.43213581570144299</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.43213581570144299</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.422890031611031</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.422890031611031</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.42091505277674202</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.41740603640555901</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.40243550506732201</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.40243550506732201</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.40016957453635399</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.39932966545485798</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.38983327364178899</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.38983327364178899</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38983327364178899</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.388922234131299</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.388197983532378</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.37853878672357799</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.37774427813297401</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.37712977390388802</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.37185684337083602</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.36731544334622701</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.35783002674779602</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.35690799891080199</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.34749779421045601</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.34506487425100302</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.33837875039718801</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.325779182072302</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.31247895552036398</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.292015635472474</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.29092868272585598</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.27108335359681501</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.247369036338036</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.184902799625527</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.16439898730535701</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.6863830426280106E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>2.2075539284417401E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.6863830426280106E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.247369036338036</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.184902799625527</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.16439898730535701</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.27108335359681501</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.292015635472474</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.325779182072302</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.34506487425100302</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.29092868272585598</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.31247895552036398</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.388197983532378</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.35690799891080199</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.36731544334622701</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.34749779421045601</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.33837875039718801</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.38983327364178899</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.37853878672357799</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.37185684337083602</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.422890031611031</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.40016957453635399</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.388922234131299</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.37774427813297401</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.38983327364178899</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.37712977390388802</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.35783002674779602</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.422890031611031</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.38983327364178899</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.43437224276306902</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.48669272578745698</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.43581363364040898</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.449357231967977</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.43314808182421</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.46936407313158302</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.46134351392193401</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.49319696191607199</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.49119496025398202</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.43937477516374701</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.46936407313158302</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.41740603640555901</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.45480548591542003</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.50832351360023298</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.445942046155682</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.43437224276306902</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.45609085490122298</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.44753318600918401</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.46626336818652098</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.49812029409784098</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.45480548591542003</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.45480548591542003</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.49695618805665898</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.47336463120312899</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.42091505277674202</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.47534939727158698</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.43213581570144299</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.44753318600918401</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.40243550506732201</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.43213581570144299</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.39932966545485798</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.40243550506732201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="70888448"/>
-        <c:axId val="70951680"/>
+        <c:axId val="69268992"/>
+        <c:axId val="69270528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70888448"/>
+        <c:axId val="69268992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="600"/>
@@ -2055,21 +2058,21 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70951680"/>
+        <c:crossAx val="69270528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70951680"/>
+        <c:axId val="69270528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.35000000000000003"/>
+          <c:min val="0.35000000000000009"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70888448"/>
+        <c:crossAx val="69268992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2082,7 +2085,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4156,9 +4159,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J39" sqref="J39"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6126,7 +6129,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6381,7 +6384,7 @@
   <dimension ref="B1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6425,9 +6428,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6460,1747 +6463,1747 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>420</v>
       </c>
       <c r="C2">
-        <v>0.51115735923228101</v>
+        <v>0.79662388715458499</v>
       </c>
       <c r="D2">
-        <v>0.510752688172043</v>
+        <v>0.75268817204301097</v>
       </c>
       <c r="E2">
-        <v>0.39784946236559099</v>
+        <v>0.80645161290322598</v>
       </c>
       <c r="F2">
-        <v>0.62365591397849496</v>
+        <v>0.69892473118279597</v>
       </c>
       <c r="G2">
-        <v>0.51388888888888895</v>
+        <v>0.72815533980582503</v>
       </c>
       <c r="H2">
-        <v>0.44848484848484799</v>
+        <v>0.76530612244898</v>
       </c>
       <c r="I2">
-        <v>2.2075539284417401E-2</v>
+        <v>0.50832351360023298</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>480</v>
       </c>
       <c r="C3">
-        <v>0.58792924037461003</v>
+        <v>0.78806798473812001</v>
       </c>
       <c r="D3">
-        <v>0.54838709677419395</v>
+        <v>0.74731182795698903</v>
       </c>
       <c r="E3">
-        <v>0.56989247311827995</v>
+        <v>0.80645161290322598</v>
       </c>
       <c r="F3">
-        <v>0.52688172043010795</v>
+        <v>0.68817204301075297</v>
       </c>
       <c r="G3">
-        <v>0.54639175257731998</v>
+        <v>0.72115384615384603</v>
       </c>
       <c r="H3">
-        <v>0.557894736842105</v>
+        <v>0.76142131979695404</v>
       </c>
       <c r="I3">
-        <v>9.6863830426280106E-2</v>
+        <v>0.49812029409784098</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1">
       <c r="A4">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="B4">
-        <v>30</v>
+        <v>510</v>
       </c>
       <c r="C4">
-        <v>0.65805295409873998</v>
+        <v>0.80390796623887095</v>
       </c>
       <c r="D4">
-        <v>0.62365591397849496</v>
+        <v>0.74731182795698903</v>
       </c>
       <c r="E4">
-        <v>0.63440860215053796</v>
+        <v>0.79569892473118298</v>
       </c>
       <c r="F4">
-        <v>0.61290322580645196</v>
+        <v>0.69892473118279597</v>
       </c>
       <c r="G4">
-        <v>0.62105263157894697</v>
+        <v>0.72549019607843102</v>
       </c>
       <c r="H4">
-        <v>0.62765957446808496</v>
+        <v>0.75897435897435905</v>
       </c>
       <c r="I4">
-        <v>0.247369036338036</v>
+        <v>0.49695618805665898</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>360</v>
       </c>
       <c r="C5">
-        <v>0.65383281304197005</v>
+        <v>0.79916753381893901</v>
       </c>
       <c r="D5">
-        <v>0.59139784946236595</v>
+        <v>0.74193548387096797</v>
       </c>
       <c r="E5">
-        <v>0.66666666666666696</v>
+        <v>0.83870967741935498</v>
       </c>
       <c r="F5">
-        <v>0.51612903225806495</v>
+        <v>0.64516129032258096</v>
       </c>
       <c r="G5">
-        <v>0.579439252336449</v>
+        <v>0.70270270270270296</v>
       </c>
       <c r="H5">
-        <v>0.62</v>
+        <v>0.76470588235294101</v>
       </c>
       <c r="I5">
-        <v>0.184902799625527</v>
+        <v>0.49319696191607199</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B6">
-        <v>50</v>
+        <v>370</v>
       </c>
       <c r="C6">
-        <v>0.649323621227888</v>
+        <v>0.797433229275061</v>
       </c>
       <c r="D6">
-        <v>0.58064516129032295</v>
+        <v>0.74193548387096797</v>
       </c>
       <c r="E6">
-        <v>0.67741935483870996</v>
+        <v>0.82795698924731198</v>
       </c>
       <c r="F6">
-        <v>0.483870967741935</v>
+        <v>0.65591397849462396</v>
       </c>
       <c r="G6">
-        <v>0.56756756756756799</v>
+        <v>0.70642201834862395</v>
       </c>
       <c r="H6">
-        <v>0.61764705882352899</v>
+        <v>0.76237623762376205</v>
       </c>
       <c r="I6">
-        <v>0.16439898730535701</v>
+        <v>0.49119496025398202</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="C7">
-        <v>0.69060006937218199</v>
+        <v>0.78159324777430905</v>
       </c>
       <c r="D7">
-        <v>0.63440860215053796</v>
+        <v>0.74193548387096797</v>
       </c>
       <c r="E7">
-        <v>0.69892473118279597</v>
+        <v>0.79569892473118298</v>
       </c>
       <c r="F7">
-        <v>0.56989247311827995</v>
+        <v>0.68817204301075297</v>
       </c>
       <c r="G7">
-        <v>0.61904761904761896</v>
+        <v>0.71844660194174803</v>
       </c>
       <c r="H7">
-        <v>0.65656565656565702</v>
+        <v>0.75510204081632604</v>
       </c>
       <c r="I7">
-        <v>0.27108335359681501</v>
+        <v>0.48669272578745698</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="B8">
-        <v>70</v>
+        <v>540</v>
       </c>
       <c r="C8">
-        <v>0.69464677997456403</v>
+        <v>0.80136431957451704</v>
       </c>
       <c r="D8">
-        <v>0.64516129032258096</v>
+        <v>0.73655913978494603</v>
       </c>
       <c r="E8">
-        <v>0.69892473118279597</v>
+        <v>0.78494623655913998</v>
       </c>
       <c r="F8">
-        <v>0.59139784946236595</v>
+        <v>0.68817204301075297</v>
       </c>
       <c r="G8">
-        <v>0.63106796116504904</v>
+        <v>0.71568627450980404</v>
       </c>
       <c r="H8">
-        <v>0.66326530612244905</v>
+        <v>0.74871794871794894</v>
       </c>
       <c r="I8">
-        <v>0.292015635472474</v>
+        <v>0.47534939727158698</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1">
       <c r="A9">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B9">
-        <v>80</v>
+        <v>520</v>
       </c>
       <c r="C9">
-        <v>0.71846456237715295</v>
+        <v>0.80263614290669405</v>
       </c>
       <c r="D9">
-        <v>0.66129032258064502</v>
+        <v>0.73655913978494603</v>
       </c>
       <c r="E9">
-        <v>0.73118279569892497</v>
+        <v>0.75268817204301097</v>
       </c>
       <c r="F9">
-        <v>0.59139784946236595</v>
+        <v>0.72043010752688197</v>
       </c>
       <c r="G9">
-        <v>0.64150943396226401</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="H9">
-        <v>0.68341708542713597</v>
+        <v>0.74074074074074103</v>
       </c>
       <c r="I9">
-        <v>0.325779182072302</v>
+        <v>0.47336463120312899</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B10">
-        <v>90</v>
+        <v>340</v>
       </c>
       <c r="C10">
-        <v>0.72921725054919595</v>
+        <v>0.78575557867961598</v>
       </c>
       <c r="D10">
-        <v>0.67204301075268802</v>
+        <v>0.73118279569892497</v>
       </c>
       <c r="E10">
-        <v>0.70967741935483897</v>
+        <v>0.81720430107526898</v>
       </c>
       <c r="F10">
-        <v>0.63440860215053796</v>
+        <v>0.64516129032258096</v>
       </c>
       <c r="G10">
-        <v>0.66</v>
+        <v>0.69724770642201805</v>
       </c>
       <c r="H10">
-        <v>0.68393782383419699</v>
+        <v>0.75247524752475203</v>
       </c>
       <c r="I10">
-        <v>0.34506487425100302</v>
+        <v>0.46936407313158302</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B11">
-        <v>100</v>
+        <v>390</v>
       </c>
       <c r="C11">
-        <v>0.72436119782633801</v>
+        <v>0.78587119898254099</v>
       </c>
       <c r="D11">
+        <v>0.73118279569892497</v>
+      </c>
+      <c r="E11">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="F11">
         <v>0.64516129032258096</v>
       </c>
-      <c r="E11">
-        <v>0.67741935483870996</v>
-      </c>
-      <c r="F11">
-        <v>0.61290322580645196</v>
-      </c>
       <c r="G11">
-        <v>0.63636363636363602</v>
+        <v>0.69724770642201805</v>
       </c>
       <c r="H11">
-        <v>0.65625</v>
+        <v>0.75247524752475203</v>
       </c>
       <c r="I11">
-        <v>0.29092868272585598</v>
+        <v>0.46936407313158302</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1">
       <c r="A12">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B12">
-        <v>110</v>
+        <v>470</v>
       </c>
       <c r="C12">
-        <v>0.75176320961960896</v>
+        <v>0.78899294716152202</v>
       </c>
       <c r="D12">
-        <v>0.65591397849462396</v>
+        <v>0.73118279569892497</v>
       </c>
       <c r="E12">
-        <v>0.68817204301075297</v>
+        <v>0.79569892473118298</v>
       </c>
       <c r="F12">
-        <v>0.62365591397849496</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="G12">
-        <v>0.64646464646464696</v>
+        <v>0.70476190476190503</v>
       </c>
       <c r="H12">
-        <v>0.66666666666666696</v>
+        <v>0.74747474747474796</v>
       </c>
       <c r="I12">
-        <v>0.31247895552036398</v>
+        <v>0.46626336818652098</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B13">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="C13">
-        <v>0.77407792808417097</v>
+        <v>0.79627702624580898</v>
       </c>
       <c r="D13">
-        <v>0.69354838709677402</v>
+        <v>0.72580645161290303</v>
       </c>
       <c r="E13">
-        <v>0.73118279569892497</v>
+        <v>0.82795698924731198</v>
       </c>
       <c r="F13">
-        <v>0.65591397849462396</v>
+        <v>0.62365591397849496</v>
       </c>
       <c r="G13">
-        <v>0.68</v>
+        <v>0.6875</v>
       </c>
       <c r="H13">
-        <v>0.704663212435233</v>
+        <v>0.75121951219512195</v>
       </c>
       <c r="I13">
-        <v>0.388197983532378</v>
+        <v>0.46134351392193401</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B14">
-        <v>130</v>
+        <v>450</v>
       </c>
       <c r="C14">
-        <v>0.77743091686900201</v>
+        <v>0.79118973291710004</v>
       </c>
       <c r="D14">
-        <v>0.67741935483870996</v>
+        <v>0.72580645161290303</v>
       </c>
       <c r="E14">
-        <v>0.73118279569892497</v>
+        <v>0.79569892473118298</v>
       </c>
       <c r="F14">
-        <v>0.62365591397849496</v>
+        <v>0.65591397849462396</v>
       </c>
       <c r="G14">
-        <v>0.66019417475728204</v>
+        <v>0.69811320754716999</v>
       </c>
       <c r="H14">
-        <v>0.69387755102040805</v>
+        <v>0.74371859296482401</v>
       </c>
       <c r="I14">
-        <v>0.35690799891080199</v>
+        <v>0.45609085490122298</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B15">
-        <v>140</v>
+        <v>410</v>
       </c>
       <c r="C15">
-        <v>0.77465602959879798</v>
+        <v>0.79303965776390395</v>
       </c>
       <c r="D15">
-        <v>0.68279569892473102</v>
+        <v>0.72580645161290303</v>
       </c>
       <c r="E15">
-        <v>0.73118279569892497</v>
+        <v>0.78494623655913998</v>
       </c>
       <c r="F15">
-        <v>0.63440860215053796</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="G15">
-        <v>0.66666666666666696</v>
+        <v>0.70192307692307698</v>
       </c>
       <c r="H15">
-        <v>0.69743589743589696</v>
+        <v>0.74111675126903598</v>
       </c>
       <c r="I15">
-        <v>0.36731544334622701</v>
+        <v>0.45480548591542003</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B16">
-        <v>150</v>
+        <v>490</v>
       </c>
       <c r="C16">
-        <v>0.77893398080703002</v>
+        <v>0.79535206382240797</v>
       </c>
       <c r="D16">
-        <v>0.67204301075268802</v>
+        <v>0.72580645161290303</v>
       </c>
       <c r="E16">
-        <v>0.74193548387096797</v>
+        <v>0.78494623655913998</v>
       </c>
       <c r="F16">
-        <v>0.60215053763440896</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="G16">
-        <v>0.65094339622641495</v>
+        <v>0.70192307692307698</v>
       </c>
       <c r="H16">
-        <v>0.69346733668341698</v>
+        <v>0.74111675126903598</v>
       </c>
       <c r="I16">
-        <v>0.34749779421045601</v>
+        <v>0.45480548591542003</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="B17">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="C17">
-        <v>0.78124638686553405</v>
+        <v>0.79858943230431201</v>
       </c>
       <c r="D17">
+        <v>0.72580645161290303</v>
+      </c>
+      <c r="E17">
+        <v>0.78494623655913998</v>
+      </c>
+      <c r="F17">
         <v>0.66666666666666696</v>
       </c>
-      <c r="E17">
-        <v>0.75268817204301097</v>
-      </c>
-      <c r="F17">
-        <v>0.58064516129032295</v>
-      </c>
       <c r="G17">
-        <v>0.64220183486238502</v>
+        <v>0.70192307692307698</v>
       </c>
       <c r="H17">
-        <v>0.69306930693069302</v>
+        <v>0.74111675126903598</v>
       </c>
       <c r="I17">
-        <v>0.33837875039718801</v>
+        <v>0.45480548591542003</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B18">
-        <v>170</v>
+        <v>320</v>
       </c>
       <c r="C18">
-        <v>0.77477164990172298</v>
+        <v>0.78587119898254199</v>
       </c>
       <c r="D18">
-        <v>0.69354838709677402</v>
+        <v>0.72043010752688197</v>
       </c>
       <c r="E18">
-        <v>0.75268817204301097</v>
+        <v>0.81720430107526898</v>
       </c>
       <c r="F18">
-        <v>0.63440860215053796</v>
+        <v>0.62365591397849496</v>
       </c>
       <c r="G18">
-        <v>0.67307692307692302</v>
+        <v>0.68468468468468502</v>
       </c>
       <c r="H18">
-        <v>0.71065989847715705</v>
+        <v>0.74509803921568596</v>
       </c>
       <c r="I18">
-        <v>0.38983327364178899</v>
+        <v>0.449357231967977</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B19">
-        <v>180</v>
+        <v>460</v>
       </c>
       <c r="C19">
-        <v>0.76852815354376203</v>
+        <v>0.78876170655567102</v>
       </c>
       <c r="D19">
-        <v>0.68817204301075297</v>
+        <v>0.72043010752688197</v>
       </c>
       <c r="E19">
-        <v>0.74193548387096797</v>
+        <v>0.80645161290322598</v>
       </c>
       <c r="F19">
         <v>0.63440860215053796</v>
       </c>
       <c r="G19">
-        <v>0.66990291262135904</v>
+        <v>0.68807339449541305</v>
       </c>
       <c r="H19">
-        <v>0.70408163265306101</v>
+        <v>0.74257425742574301</v>
       </c>
       <c r="I19">
-        <v>0.37853878672357799</v>
+        <v>0.44753318600918401</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="B20">
-        <v>190</v>
+        <v>560</v>
       </c>
       <c r="C20">
-        <v>0.76875939414961203</v>
+        <v>0.80113307896866703</v>
       </c>
       <c r="D20">
-        <v>0.68279569892473102</v>
+        <v>0.72043010752688197</v>
       </c>
       <c r="E20">
-        <v>0.77419354838709697</v>
+        <v>0.80645161290322598</v>
       </c>
       <c r="F20">
-        <v>0.59139784946236595</v>
+        <v>0.63440860215053796</v>
       </c>
       <c r="G20">
-        <v>0.65454545454545499</v>
+        <v>0.68807339449541305</v>
       </c>
       <c r="H20">
-        <v>0.70935960591132996</v>
+        <v>0.74257425742574301</v>
       </c>
       <c r="I20">
-        <v>0.37185684337083602</v>
+        <v>0.44753318600918401</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B21">
-        <v>200</v>
+        <v>430</v>
       </c>
       <c r="C21">
-        <v>0.75858480749219603</v>
+        <v>0.79835819169846201</v>
       </c>
       <c r="D21">
-        <v>0.70967741935483897</v>
+        <v>0.72043010752688197</v>
       </c>
       <c r="E21">
-        <v>0.77419354838709697</v>
+        <v>0.79569892473118298</v>
       </c>
       <c r="F21">
         <v>0.64516129032258096</v>
       </c>
       <c r="G21">
-        <v>0.68571428571428605</v>
+        <v>0.69158878504672905</v>
       </c>
       <c r="H21">
-        <v>0.72727272727272696</v>
+        <v>0.74</v>
       </c>
       <c r="I21">
-        <v>0.422890031611031</v>
+        <v>0.445942046155682</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B22">
-        <v>210</v>
+        <v>380</v>
       </c>
       <c r="C22">
-        <v>0.76494392415308199</v>
+        <v>0.787605503526419</v>
       </c>
       <c r="D22">
-        <v>0.69892473118279597</v>
+        <v>0.71505376344086002</v>
       </c>
       <c r="E22">
-        <v>0.75268817204301097</v>
+        <v>0.81720430107526898</v>
       </c>
       <c r="F22">
-        <v>0.64516129032258096</v>
+        <v>0.61290322580645196</v>
       </c>
       <c r="G22">
-        <v>0.67961165048543704</v>
+        <v>0.67857142857142905</v>
       </c>
       <c r="H22">
-        <v>0.71428571428571397</v>
+        <v>0.741463414634146</v>
       </c>
       <c r="I22">
-        <v>0.40016957453635399</v>
+        <v>0.43937477516374701</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>220</v>
+        <v>310</v>
       </c>
       <c r="C23">
-        <v>0.77373106717539697</v>
+        <v>0.786911781708868</v>
       </c>
       <c r="D23">
-        <v>0.69354838709677402</v>
+        <v>0.71505376344086002</v>
       </c>
       <c r="E23">
-        <v>0.74193548387096797</v>
+        <v>0.79569892473118298</v>
       </c>
       <c r="F23">
-        <v>0.64516129032258096</v>
+        <v>0.63440860215053796</v>
       </c>
       <c r="G23">
-        <v>0.67647058823529405</v>
+        <v>0.68518518518518501</v>
       </c>
       <c r="H23">
-        <v>0.70769230769230795</v>
+        <v>0.73631840796019898</v>
       </c>
       <c r="I23">
-        <v>0.388922234131299</v>
+        <v>0.43581363364040898</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>230</v>
+        <v>290</v>
       </c>
       <c r="C24">
-        <v>0.75800670597757003</v>
+        <v>0.77546537171927499</v>
       </c>
       <c r="D24">
-        <v>0.68817204301075297</v>
+        <v>0.71505376344086002</v>
       </c>
       <c r="E24">
-        <v>0.73118279569892497</v>
+        <v>0.78494623655913998</v>
       </c>
       <c r="F24">
         <v>0.64516129032258096</v>
       </c>
       <c r="G24">
-        <v>0.67326732673267298</v>
+        <v>0.68867924528301905</v>
       </c>
       <c r="H24">
-        <v>0.70103092783505205</v>
+        <v>0.733668341708543</v>
       </c>
       <c r="I24">
-        <v>0.37774427813297401</v>
+        <v>0.43437224276306902</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B25">
-        <v>240</v>
+        <v>440</v>
       </c>
       <c r="C25">
-        <v>0.76760319112036102</v>
+        <v>0.79280841715805295</v>
       </c>
       <c r="D25">
-        <v>0.69354838709677402</v>
+        <v>0.71505376344086002</v>
       </c>
       <c r="E25">
-        <v>0.75268817204301097</v>
+        <v>0.78494623655913998</v>
       </c>
       <c r="F25">
-        <v>0.63440860215053796</v>
+        <v>0.64516129032258096</v>
       </c>
       <c r="G25">
-        <v>0.67307692307692302</v>
+        <v>0.68867924528301905</v>
       </c>
       <c r="H25">
-        <v>0.71065989847715705</v>
+        <v>0.733668341708543</v>
       </c>
       <c r="I25">
-        <v>0.38983327364178899</v>
+        <v>0.43437224276306902</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="C26">
-        <v>0.77269048444906996</v>
+        <v>0.787374262920569</v>
       </c>
       <c r="D26">
-        <v>0.68817204301075297</v>
+        <v>0.71505376344086002</v>
       </c>
       <c r="E26">
-        <v>0.72043010752688197</v>
+        <v>0.77419354838709697</v>
       </c>
       <c r="F26">
         <v>0.65591397849462396</v>
       </c>
       <c r="G26">
-        <v>0.67676767676767702</v>
+        <v>0.69230769230769196</v>
       </c>
       <c r="H26">
-        <v>0.69791666666666696</v>
+        <v>0.730964467005076</v>
       </c>
       <c r="I26">
-        <v>0.37712977390388802</v>
+        <v>0.43314808182421</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="B27">
-        <v>260</v>
+        <v>550</v>
       </c>
       <c r="C27">
-        <v>0.78147762747138505</v>
+        <v>0.77592785293097399</v>
       </c>
       <c r="D27">
-        <v>0.67741935483870996</v>
+        <v>0.71505376344086002</v>
       </c>
       <c r="E27">
-        <v>0.74193548387096797</v>
+        <v>0.76344086021505397</v>
       </c>
       <c r="F27">
-        <v>0.61290322580645196</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="G27">
-        <v>0.65714285714285703</v>
+        <v>0.69607843137254899</v>
       </c>
       <c r="H27">
-        <v>0.69696969696969702</v>
+        <v>0.72820512820512795</v>
       </c>
       <c r="I27">
-        <v>0.35783002674779602</v>
+        <v>0.43213581570144299</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B28">
-        <v>270</v>
+        <v>580</v>
       </c>
       <c r="C28">
-        <v>0.786911781708868</v>
+        <v>0.78587119898254099</v>
       </c>
       <c r="D28">
-        <v>0.70967741935483897</v>
+        <v>0.71505376344086002</v>
       </c>
       <c r="E28">
-        <v>0.77419354838709697</v>
+        <v>0.76344086021505397</v>
       </c>
       <c r="F28">
-        <v>0.64516129032258096</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="G28">
-        <v>0.68571428571428605</v>
+        <v>0.69607843137254899</v>
       </c>
       <c r="H28">
-        <v>0.72727272727272696</v>
+        <v>0.72820512820512795</v>
       </c>
       <c r="I28">
-        <v>0.422890031611031</v>
+        <v>0.43213581570144299</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B29">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="C29">
-        <v>0.76945311596716404</v>
+        <v>0.75858480749219603</v>
       </c>
       <c r="D29">
-        <v>0.69354838709677402</v>
+        <v>0.70967741935483897</v>
       </c>
       <c r="E29">
-        <v>0.75268817204301097</v>
+        <v>0.77419354838709697</v>
       </c>
       <c r="F29">
-        <v>0.63440860215053796</v>
+        <v>0.64516129032258096</v>
       </c>
       <c r="G29">
-        <v>0.67307692307692302</v>
+        <v>0.68571428571428605</v>
       </c>
       <c r="H29">
-        <v>0.71065989847715705</v>
+        <v>0.72727272727272696</v>
       </c>
       <c r="I29">
-        <v>0.38983327364178899</v>
+        <v>0.422890031611031</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="C30">
-        <v>0.77546537171927499</v>
+        <v>0.786911781708868</v>
       </c>
       <c r="D30">
-        <v>0.71505376344086002</v>
+        <v>0.70967741935483897</v>
       </c>
       <c r="E30">
-        <v>0.78494623655913998</v>
+        <v>0.77419354838709697</v>
       </c>
       <c r="F30">
         <v>0.64516129032258096</v>
       </c>
       <c r="G30">
-        <v>0.68867924528301905</v>
+        <v>0.68571428571428605</v>
       </c>
       <c r="H30">
-        <v>0.733668341708543</v>
+        <v>0.72727272727272696</v>
       </c>
       <c r="I30">
-        <v>0.43437224276306902</v>
+        <v>0.422890031611031</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B31">
-        <v>300</v>
+        <v>530</v>
       </c>
       <c r="C31">
-        <v>0.78159324777430905</v>
+        <v>0.79546768412533198</v>
       </c>
       <c r="D31">
-        <v>0.74193548387096797</v>
+        <v>0.70967741935483897</v>
       </c>
       <c r="E31">
-        <v>0.79569892473118298</v>
+        <v>0.75268817204301097</v>
       </c>
       <c r="F31">
-        <v>0.68817204301075297</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="G31">
-        <v>0.71844660194174803</v>
+        <v>0.69306930693069302</v>
       </c>
       <c r="H31">
-        <v>0.75510204081632604</v>
+        <v>0.72164948453608202</v>
       </c>
       <c r="I31">
-        <v>0.48669272578745698</v>
+        <v>0.42091505277674202</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>310</v>
+        <v>400</v>
       </c>
       <c r="C32">
-        <v>0.786911781708868</v>
+        <v>0.79095849231125004</v>
       </c>
       <c r="D32">
-        <v>0.71505376344086002</v>
+        <v>0.70430107526881702</v>
       </c>
       <c r="E32">
-        <v>0.79569892473118298</v>
+        <v>0.80645161290322598</v>
       </c>
       <c r="F32">
-        <v>0.63440860215053796</v>
+        <v>0.60215053763440896</v>
       </c>
       <c r="G32">
-        <v>0.68518518518518501</v>
+        <v>0.66964285714285698</v>
       </c>
       <c r="H32">
-        <v>0.73631840796019898</v>
+        <v>0.73170731707317105</v>
       </c>
       <c r="I32">
-        <v>0.43581363364040898</v>
+        <v>0.41740603640555901</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="B33">
-        <v>320</v>
+        <v>570</v>
       </c>
       <c r="C33">
-        <v>0.78587119898254199</v>
+        <v>0.78436813504451397</v>
       </c>
       <c r="D33">
-        <v>0.72043010752688197</v>
+        <v>0.69892473118279597</v>
       </c>
       <c r="E33">
-        <v>0.81720430107526898</v>
+        <v>0.77419354838709697</v>
       </c>
       <c r="F33">
         <v>0.62365591397849496</v>
       </c>
       <c r="G33">
-        <v>0.68468468468468502</v>
+        <v>0.67289719626168198</v>
       </c>
       <c r="H33">
-        <v>0.74509803921568596</v>
+        <v>0.72</v>
       </c>
       <c r="I33">
-        <v>0.449357231967977</v>
+        <v>0.40243550506732201</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B34">
-        <v>330</v>
+        <v>600</v>
       </c>
       <c r="C34">
-        <v>0.787374262920569</v>
+        <v>0.79292403746097895</v>
       </c>
       <c r="D34">
-        <v>0.71505376344086002</v>
+        <v>0.69892473118279597</v>
       </c>
       <c r="E34">
         <v>0.77419354838709697</v>
       </c>
       <c r="F34">
-        <v>0.65591397849462396</v>
+        <v>0.62365591397849496</v>
       </c>
       <c r="G34">
-        <v>0.69230769230769196</v>
+        <v>0.67289719626168198</v>
       </c>
       <c r="H34">
-        <v>0.730964467005076</v>
+        <v>0.72</v>
       </c>
       <c r="I34">
-        <v>0.43314808182421</v>
+        <v>0.40243550506732201</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B35">
-        <v>340</v>
+        <v>210</v>
       </c>
       <c r="C35">
-        <v>0.78575557867961598</v>
+        <v>0.76494392415308199</v>
       </c>
       <c r="D35">
-        <v>0.73118279569892497</v>
+        <v>0.69892473118279597</v>
       </c>
       <c r="E35">
-        <v>0.81720430107526898</v>
+        <v>0.75268817204301097</v>
       </c>
       <c r="F35">
         <v>0.64516129032258096</v>
       </c>
       <c r="G35">
-        <v>0.69724770642201805</v>
+        <v>0.67961165048543704</v>
       </c>
       <c r="H35">
-        <v>0.75247524752475203</v>
+        <v>0.71428571428571397</v>
       </c>
       <c r="I35">
-        <v>0.46936407313158302</v>
+        <v>0.40016957453635399</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B36">
-        <v>350</v>
+        <v>590</v>
       </c>
       <c r="C36">
-        <v>0.79627702624580898</v>
+        <v>0.79650826685165899</v>
       </c>
       <c r="D36">
-        <v>0.72580645161290303</v>
+        <v>0.69892473118279597</v>
       </c>
       <c r="E36">
-        <v>0.82795698924731198</v>
+        <v>0.74193548387096797</v>
       </c>
       <c r="F36">
-        <v>0.62365591397849496</v>
+        <v>0.65591397849462396</v>
       </c>
       <c r="G36">
-        <v>0.6875</v>
+        <v>0.683168316831683</v>
       </c>
       <c r="H36">
-        <v>0.75121951219512195</v>
+        <v>0.71134020618556704</v>
       </c>
       <c r="I36">
-        <v>0.46134351392193401</v>
+        <v>0.39932966545485798</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B37">
-        <v>360</v>
+        <v>170</v>
       </c>
       <c r="C37">
-        <v>0.79916753381893901</v>
+        <v>0.77477164990172298</v>
       </c>
       <c r="D37">
-        <v>0.74193548387096797</v>
+        <v>0.69354838709677402</v>
       </c>
       <c r="E37">
-        <v>0.83870967741935498</v>
+        <v>0.75268817204301097</v>
       </c>
       <c r="F37">
-        <v>0.64516129032258096</v>
+        <v>0.63440860215053796</v>
       </c>
       <c r="G37">
-        <v>0.70270270270270296</v>
+        <v>0.67307692307692302</v>
       </c>
       <c r="H37">
-        <v>0.76470588235294101</v>
+        <v>0.71065989847715705</v>
       </c>
       <c r="I37">
-        <v>0.49319696191607199</v>
+        <v>0.38983327364178899</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B38">
-        <v>370</v>
+        <v>240</v>
       </c>
       <c r="C38">
-        <v>0.797433229275061</v>
+        <v>0.76760319112036102</v>
       </c>
       <c r="D38">
-        <v>0.74193548387096797</v>
+        <v>0.69354838709677402</v>
       </c>
       <c r="E38">
-        <v>0.82795698924731198</v>
+        <v>0.75268817204301097</v>
       </c>
       <c r="F38">
-        <v>0.65591397849462396</v>
+        <v>0.63440860215053796</v>
       </c>
       <c r="G38">
-        <v>0.70642201834862395</v>
+        <v>0.67307692307692302</v>
       </c>
       <c r="H38">
-        <v>0.76237623762376205</v>
+        <v>0.71065989847715705</v>
       </c>
       <c r="I38">
-        <v>0.49119496025398202</v>
+        <v>0.38983327364178899</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B39">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="C39">
-        <v>0.787605503526419</v>
+        <v>0.76945311596716404</v>
       </c>
       <c r="D39">
-        <v>0.71505376344086002</v>
+        <v>0.69354838709677402</v>
       </c>
       <c r="E39">
-        <v>0.81720430107526898</v>
+        <v>0.75268817204301097</v>
       </c>
       <c r="F39">
-        <v>0.61290322580645196</v>
+        <v>0.63440860215053796</v>
       </c>
       <c r="G39">
-        <v>0.67857142857142905</v>
+        <v>0.67307692307692302</v>
       </c>
       <c r="H39">
-        <v>0.741463414634146</v>
+        <v>0.71065989847715705</v>
       </c>
       <c r="I39">
-        <v>0.43937477516374701</v>
+        <v>0.38983327364178899</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B40">
-        <v>390</v>
+        <v>220</v>
       </c>
       <c r="C40">
-        <v>0.78587119898254099</v>
+        <v>0.77373106717539697</v>
       </c>
       <c r="D40">
-        <v>0.73118279569892497</v>
+        <v>0.69354838709677402</v>
       </c>
       <c r="E40">
-        <v>0.81720430107526898</v>
+        <v>0.74193548387096797</v>
       </c>
       <c r="F40">
         <v>0.64516129032258096</v>
       </c>
       <c r="G40">
-        <v>0.69724770642201805</v>
+        <v>0.67647058823529405</v>
       </c>
       <c r="H40">
-        <v>0.75247524752475203</v>
+        <v>0.70769230769230795</v>
       </c>
       <c r="I40">
-        <v>0.46936407313158302</v>
+        <v>0.388922234131299</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B41">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="C41">
-        <v>0.79095849231125004</v>
+        <v>0.77407792808417097</v>
       </c>
       <c r="D41">
-        <v>0.70430107526881702</v>
+        <v>0.69354838709677402</v>
       </c>
       <c r="E41">
-        <v>0.80645161290322598</v>
+        <v>0.73118279569892497</v>
       </c>
       <c r="F41">
-        <v>0.60215053763440896</v>
+        <v>0.65591397849462396</v>
       </c>
       <c r="G41">
-        <v>0.66964285714285698</v>
+        <v>0.68</v>
       </c>
       <c r="H41">
-        <v>0.73170731707317105</v>
+        <v>0.704663212435233</v>
       </c>
       <c r="I41">
-        <v>0.41740603640555901</v>
+        <v>0.388197983532378</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B42">
-        <v>410</v>
+        <v>180</v>
       </c>
       <c r="C42">
-        <v>0.79303965776390395</v>
+        <v>0.76852815354376203</v>
       </c>
       <c r="D42">
-        <v>0.72580645161290303</v>
+        <v>0.68817204301075297</v>
       </c>
       <c r="E42">
-        <v>0.78494623655913998</v>
+        <v>0.74193548387096797</v>
       </c>
       <c r="F42">
-        <v>0.66666666666666696</v>
+        <v>0.63440860215053796</v>
       </c>
       <c r="G42">
-        <v>0.70192307692307698</v>
+        <v>0.66990291262135904</v>
       </c>
       <c r="H42">
-        <v>0.74111675126903598</v>
+        <v>0.70408163265306101</v>
       </c>
       <c r="I42">
-        <v>0.45480548591542003</v>
+        <v>0.37853878672357799</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B43">
-        <v>420</v>
+        <v>230</v>
       </c>
       <c r="C43">
-        <v>0.79662388715458499</v>
+        <v>0.75800670597757003</v>
       </c>
       <c r="D43">
-        <v>0.75268817204301097</v>
+        <v>0.68817204301075297</v>
       </c>
       <c r="E43">
-        <v>0.80645161290322598</v>
+        <v>0.73118279569892497</v>
       </c>
       <c r="F43">
-        <v>0.69892473118279597</v>
+        <v>0.64516129032258096</v>
       </c>
       <c r="G43">
-        <v>0.72815533980582503</v>
+        <v>0.67326732673267298</v>
       </c>
       <c r="H43">
-        <v>0.76530612244898</v>
+        <v>0.70103092783505205</v>
       </c>
       <c r="I43">
-        <v>0.50832351360023298</v>
+        <v>0.37774427813297401</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B44">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="C44">
-        <v>0.79835819169846201</v>
+        <v>0.77269048444906996</v>
       </c>
       <c r="D44">
+        <v>0.68817204301075297</v>
+      </c>
+      <c r="E44">
         <v>0.72043010752688197</v>
       </c>
-      <c r="E44">
-        <v>0.79569892473118298</v>
-      </c>
       <c r="F44">
-        <v>0.64516129032258096</v>
+        <v>0.65591397849462396</v>
       </c>
       <c r="G44">
-        <v>0.69158878504672905</v>
+        <v>0.67676767676767702</v>
       </c>
       <c r="H44">
-        <v>0.74</v>
+        <v>0.69791666666666696</v>
       </c>
       <c r="I44">
-        <v>0.445942046155682</v>
+        <v>0.37712977390388802</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B45">
-        <v>440</v>
+        <v>190</v>
       </c>
       <c r="C45">
-        <v>0.79280841715805295</v>
+        <v>0.76875939414961203</v>
       </c>
       <c r="D45">
-        <v>0.71505376344086002</v>
+        <v>0.68279569892473102</v>
       </c>
       <c r="E45">
-        <v>0.78494623655913998</v>
+        <v>0.77419354838709697</v>
       </c>
       <c r="F45">
-        <v>0.64516129032258096</v>
+        <v>0.59139784946236595</v>
       </c>
       <c r="G45">
-        <v>0.68867924528301905</v>
+        <v>0.65454545454545499</v>
       </c>
       <c r="H45">
-        <v>0.733668341708543</v>
+        <v>0.70935960591132996</v>
       </c>
       <c r="I45">
-        <v>0.43437224276306902</v>
+        <v>0.37185684337083602</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B46">
-        <v>450</v>
+        <v>140</v>
       </c>
       <c r="C46">
-        <v>0.79118973291710004</v>
+        <v>0.77465602959879798</v>
       </c>
       <c r="D46">
-        <v>0.72580645161290303</v>
+        <v>0.68279569892473102</v>
       </c>
       <c r="E46">
-        <v>0.79569892473118298</v>
+        <v>0.73118279569892497</v>
       </c>
       <c r="F46">
-        <v>0.65591397849462396</v>
+        <v>0.63440860215053796</v>
       </c>
       <c r="G46">
-        <v>0.69811320754716999</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="H46">
-        <v>0.74371859296482401</v>
+        <v>0.69743589743589696</v>
       </c>
       <c r="I46">
-        <v>0.45609085490122298</v>
+        <v>0.36731544334622701</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B47">
-        <v>460</v>
+        <v>260</v>
       </c>
       <c r="C47">
-        <v>0.78876170655567102</v>
+        <v>0.78147762747138505</v>
       </c>
       <c r="D47">
-        <v>0.72043010752688197</v>
+        <v>0.67741935483870996</v>
       </c>
       <c r="E47">
-        <v>0.80645161290322598</v>
+        <v>0.74193548387096797</v>
       </c>
       <c r="F47">
-        <v>0.63440860215053796</v>
+        <v>0.61290322580645196</v>
       </c>
       <c r="G47">
-        <v>0.68807339449541305</v>
+        <v>0.65714285714285703</v>
       </c>
       <c r="H47">
-        <v>0.74257425742574301</v>
+        <v>0.69696969696969702</v>
       </c>
       <c r="I47">
-        <v>0.44753318600918401</v>
+        <v>0.35783002674779602</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B48">
-        <v>470</v>
+        <v>130</v>
       </c>
       <c r="C48">
-        <v>0.78899294716152202</v>
+        <v>0.77743091686900201</v>
       </c>
       <c r="D48">
+        <v>0.67741935483870996</v>
+      </c>
+      <c r="E48">
         <v>0.73118279569892497</v>
       </c>
-      <c r="E48">
-        <v>0.79569892473118298</v>
-      </c>
       <c r="F48">
-        <v>0.66666666666666696</v>
+        <v>0.62365591397849496</v>
       </c>
       <c r="G48">
-        <v>0.70476190476190503</v>
+        <v>0.66019417475728204</v>
       </c>
       <c r="H48">
-        <v>0.74747474747474796</v>
+        <v>0.69387755102040805</v>
       </c>
       <c r="I48">
-        <v>0.46626336818652098</v>
+        <v>0.35690799891080199</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="B49">
-        <v>480</v>
+        <v>150</v>
       </c>
       <c r="C49">
-        <v>0.78806798473812001</v>
+        <v>0.77893398080703002</v>
       </c>
       <c r="D49">
-        <v>0.74731182795698903</v>
+        <v>0.67204301075268802</v>
       </c>
       <c r="E49">
-        <v>0.80645161290322598</v>
+        <v>0.74193548387096797</v>
       </c>
       <c r="F49">
-        <v>0.68817204301075297</v>
+        <v>0.60215053763440896</v>
       </c>
       <c r="G49">
-        <v>0.72115384615384603</v>
+        <v>0.65094339622641495</v>
       </c>
       <c r="H49">
-        <v>0.76142131979695404</v>
+        <v>0.69346733668341698</v>
       </c>
       <c r="I49">
-        <v>0.49812029409784098</v>
+        <v>0.34749779421045601</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="B50">
-        <v>490</v>
+        <v>90</v>
       </c>
       <c r="C50">
-        <v>0.79535206382240797</v>
+        <v>0.72921725054919595</v>
       </c>
       <c r="D50">
-        <v>0.72580645161290303</v>
+        <v>0.67204301075268802</v>
       </c>
       <c r="E50">
-        <v>0.78494623655913998</v>
+        <v>0.70967741935483897</v>
       </c>
       <c r="F50">
-        <v>0.66666666666666696</v>
+        <v>0.63440860215053796</v>
       </c>
       <c r="G50">
-        <v>0.70192307692307698</v>
+        <v>0.66</v>
       </c>
       <c r="H50">
-        <v>0.74111675126903598</v>
+        <v>0.68393782383419699</v>
       </c>
       <c r="I50">
-        <v>0.45480548591542003</v>
+        <v>0.34506487425100302</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B51">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="C51">
-        <v>0.79858943230431201</v>
+        <v>0.78124638686553405</v>
       </c>
       <c r="D51">
-        <v>0.72580645161290303</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="E51">
-        <v>0.78494623655913998</v>
+        <v>0.75268817204301097</v>
       </c>
       <c r="F51">
-        <v>0.66666666666666696</v>
+        <v>0.58064516129032295</v>
       </c>
       <c r="G51">
-        <v>0.70192307692307698</v>
+        <v>0.64220183486238502</v>
       </c>
       <c r="H51">
-        <v>0.74111675126903598</v>
+        <v>0.69306930693069302</v>
       </c>
       <c r="I51">
-        <v>0.45480548591542003</v>
+        <v>0.33837875039718801</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B52">
-        <v>510</v>
+        <v>80</v>
       </c>
       <c r="C52">
-        <v>0.80390796623887095</v>
+        <v>0.71846456237715295</v>
       </c>
       <c r="D52">
-        <v>0.74731182795698903</v>
+        <v>0.66129032258064502</v>
       </c>
       <c r="E52">
-        <v>0.79569892473118298</v>
+        <v>0.73118279569892497</v>
       </c>
       <c r="F52">
-        <v>0.69892473118279597</v>
+        <v>0.59139784946236595</v>
       </c>
       <c r="G52">
-        <v>0.72549019607843102</v>
+        <v>0.64150943396226401</v>
       </c>
       <c r="H52">
-        <v>0.75897435897435905</v>
+        <v>0.68341708542713597</v>
       </c>
       <c r="I52">
-        <v>0.49695618805665898</v>
+        <v>0.325779182072302</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="B53">
-        <v>520</v>
+        <v>110</v>
       </c>
       <c r="C53">
-        <v>0.80263614290669405</v>
+        <v>0.75176320961960896</v>
       </c>
       <c r="D53">
-        <v>0.73655913978494603</v>
+        <v>0.65591397849462396</v>
       </c>
       <c r="E53">
-        <v>0.75268817204301097</v>
+        <v>0.68817204301075297</v>
       </c>
       <c r="F53">
-        <v>0.72043010752688197</v>
+        <v>0.62365591397849496</v>
       </c>
       <c r="G53">
-        <v>0.72916666666666696</v>
+        <v>0.64646464646464696</v>
       </c>
       <c r="H53">
-        <v>0.74074074074074103</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="I53">
-        <v>0.47336463120312899</v>
+        <v>0.31247895552036398</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B54">
-        <v>530</v>
+        <v>70</v>
       </c>
       <c r="C54">
-        <v>0.79546768412533198</v>
+        <v>0.69464677997456403</v>
       </c>
       <c r="D54">
-        <v>0.70967741935483897</v>
+        <v>0.64516129032258096</v>
       </c>
       <c r="E54">
-        <v>0.75268817204301097</v>
+        <v>0.69892473118279597</v>
       </c>
       <c r="F54">
-        <v>0.66666666666666696</v>
+        <v>0.59139784946236595</v>
       </c>
       <c r="G54">
-        <v>0.69306930693069302</v>
+        <v>0.63106796116504904</v>
       </c>
       <c r="H54">
-        <v>0.72164948453608202</v>
+        <v>0.66326530612244905</v>
       </c>
       <c r="I54">
-        <v>0.42091505277674202</v>
+        <v>0.292015635472474</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B55">
-        <v>540</v>
+        <v>100</v>
       </c>
       <c r="C55">
-        <v>0.80136431957451704</v>
+        <v>0.72436119782633801</v>
       </c>
       <c r="D55">
-        <v>0.73655913978494603</v>
+        <v>0.64516129032258096</v>
       </c>
       <c r="E55">
-        <v>0.78494623655913998</v>
+        <v>0.67741935483870996</v>
       </c>
       <c r="F55">
-        <v>0.68817204301075297</v>
+        <v>0.61290322580645196</v>
       </c>
       <c r="G55">
-        <v>0.71568627450980404</v>
+        <v>0.63636363636363602</v>
       </c>
       <c r="H55">
-        <v>0.74871794871794894</v>
+        <v>0.65625</v>
       </c>
       <c r="I55">
-        <v>0.47534939727158698</v>
+        <v>0.29092868272585598</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="B56">
-        <v>550</v>
+        <v>60</v>
       </c>
       <c r="C56">
-        <v>0.77592785293097399</v>
+        <v>0.69060006937218199</v>
       </c>
       <c r="D56">
-        <v>0.71505376344086002</v>
+        <v>0.63440860215053796</v>
       </c>
       <c r="E56">
-        <v>0.76344086021505397</v>
+        <v>0.69892473118279597</v>
       </c>
       <c r="F56">
-        <v>0.66666666666666696</v>
+        <v>0.56989247311827995</v>
       </c>
       <c r="G56">
-        <v>0.69607843137254899</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="H56">
-        <v>0.72820512820512795</v>
+        <v>0.65656565656565702</v>
       </c>
       <c r="I56">
-        <v>0.43213581570144299</v>
+        <v>0.27108335359681501</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="B57">
-        <v>560</v>
+        <v>30</v>
       </c>
       <c r="C57">
-        <v>0.80113307896866703</v>
+        <v>0.65805295409873998</v>
       </c>
       <c r="D57">
-        <v>0.72043010752688197</v>
+        <v>0.62365591397849496</v>
       </c>
       <c r="E57">
-        <v>0.80645161290322598</v>
+        <v>0.63440860215053796</v>
       </c>
       <c r="F57">
-        <v>0.63440860215053796</v>
+        <v>0.61290322580645196</v>
       </c>
       <c r="G57">
-        <v>0.68807339449541305</v>
+        <v>0.62105263157894697</v>
       </c>
       <c r="H57">
-        <v>0.74257425742574301</v>
+        <v>0.62765957446808496</v>
       </c>
       <c r="I57">
-        <v>0.44753318600918401</v>
+        <v>0.247369036338036</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="B58">
-        <v>570</v>
+        <v>40</v>
       </c>
       <c r="C58">
-        <v>0.78436813504451397</v>
+        <v>0.65383281304197005</v>
       </c>
       <c r="D58">
-        <v>0.69892473118279597</v>
+        <v>0.59139784946236595</v>
       </c>
       <c r="E58">
-        <v>0.77419354838709697</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="F58">
-        <v>0.62365591397849496</v>
+        <v>0.51612903225806495</v>
       </c>
       <c r="G58">
-        <v>0.67289719626168198</v>
+        <v>0.579439252336449</v>
       </c>
       <c r="H58">
-        <v>0.72</v>
+        <v>0.62</v>
       </c>
       <c r="I58">
-        <v>0.40243550506732201</v>
+        <v>0.184902799625527</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="B59">
-        <v>580</v>
+        <v>50</v>
       </c>
       <c r="C59">
-        <v>0.78587119898254099</v>
+        <v>0.649323621227888</v>
       </c>
       <c r="D59">
-        <v>0.71505376344086002</v>
+        <v>0.58064516129032295</v>
       </c>
       <c r="E59">
-        <v>0.76344086021505397</v>
+        <v>0.67741935483870996</v>
       </c>
       <c r="F59">
-        <v>0.66666666666666696</v>
+        <v>0.483870967741935</v>
       </c>
       <c r="G59">
-        <v>0.69607843137254899</v>
+        <v>0.56756756756756799</v>
       </c>
       <c r="H59">
-        <v>0.72820512820512795</v>
+        <v>0.61764705882352899</v>
       </c>
       <c r="I59">
-        <v>0.43213581570144299</v>
+        <v>0.16439898730535701</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="B60">
-        <v>590</v>
+        <v>20</v>
       </c>
       <c r="C60">
-        <v>0.79650826685165899</v>
+        <v>0.58792924037461003</v>
       </c>
       <c r="D60">
-        <v>0.69892473118279597</v>
+        <v>0.54838709677419395</v>
       </c>
       <c r="E60">
-        <v>0.74193548387096797</v>
+        <v>0.56989247311827995</v>
       </c>
       <c r="F60">
-        <v>0.65591397849462396</v>
+        <v>0.52688172043010795</v>
       </c>
       <c r="G60">
-        <v>0.683168316831683</v>
+        <v>0.54639175257731998</v>
       </c>
       <c r="H60">
-        <v>0.71134020618556704</v>
+        <v>0.557894736842105</v>
       </c>
       <c r="I60">
-        <v>0.39932966545485798</v>
+        <v>9.6863830426280106E-2</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="B61">
-        <v>600</v>
+        <v>10</v>
       </c>
       <c r="C61">
-        <v>0.79292403746097895</v>
+        <v>0.51115735923228101</v>
       </c>
       <c r="D61">
-        <v>0.69892473118279597</v>
+        <v>0.510752688172043</v>
       </c>
       <c r="E61">
-        <v>0.77419354838709697</v>
+        <v>0.39784946236559099</v>
       </c>
       <c r="F61">
         <v>0.62365591397849496</v>
       </c>
       <c r="G61">
-        <v>0.67289719626168198</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="H61">
-        <v>0.72</v>
+        <v>0.44848484848484799</v>
       </c>
       <c r="I61">
-        <v>0.40243550506732201</v>
+        <v>2.2075539284417401E-2</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:I61">
-    <sortCondition ref="A2"/>
+    <sortCondition descending="1" ref="I2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
